--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70K9734\Documents\ProcurementPIDSG\PriceDRO\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debdeeppaul/Documents/Procurement/PIDSG25/price_dro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D796E40-BD31-4A12-9BA3-E50DA6E5BAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED23485-56A7-8243-87EE-EFFF14D4FC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supplier" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Victoria WU:</t>
         </r>
@@ -63,7 +63,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 211
@@ -119,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,19 +135,19 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -188,16 +188,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -484,19 +483,19 @@
       <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -508,15 +507,15 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>2</v>
       </c>
       <c r="C2">
@@ -528,15 +527,15 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>4</v>
       </c>
       <c r="C3">
@@ -548,299 +547,299 @@
       <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
     </row>
   </sheetData>
@@ -859,13 +858,13 @@
       <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100">
+    <row r="1" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -973,7 +972,7 @@
       <c r="CU1" s="4"/>
       <c r="CV1" s="4"/>
     </row>
-    <row r="2" spans="1:100">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -985,7 +984,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:100">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -997,7 +996,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:100">
+    <row r="4" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1009,7 +1008,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:100">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1021,7 +1020,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:100">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1033,7 +1032,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:100">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1045,7 +1044,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:100">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1057,7 +1056,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:100">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1069,7 +1068,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:100">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1081,7 +1080,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:100">
+    <row r="11" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1093,7 +1092,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:100">
+    <row r="12" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1104,7 +1103,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="13" spans="1:100">
+    <row r="13" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1115,157 +1114,157 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="14" spans="1:100">
+    <row r="14" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="C14" s="5"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:100">
+    <row r="15" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:100">
+    <row r="16" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="C20" s="5"/>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="C26" s="5"/>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="C32" s="5"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="C38" s="5"/>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="C42" s="5"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="C44" s="5"/>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="C49" s="5"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E50"/>
     </row>
   </sheetData>
@@ -1276,16 +1275,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:GS49"/>
+  <dimension ref="A1:CW49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CV38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="DA37" sqref="DA37"/>
+      <selection pane="bottomRight" activeCell="CX1" sqref="CX1:GS1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -1294,7 +1293,7 @@
     <col min="101" max="101" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:201">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1598,308 +1597,8 @@
       <c r="CW1" s="2">
         <v>100</v>
       </c>
-      <c r="CX1" s="2">
-        <v>101</v>
-      </c>
-      <c r="CY1" s="2">
-        <v>102</v>
-      </c>
-      <c r="CZ1" s="2">
-        <v>103</v>
-      </c>
-      <c r="DA1" s="2">
-        <v>104</v>
-      </c>
-      <c r="DB1" s="2">
-        <v>105</v>
-      </c>
-      <c r="DC1" s="2">
-        <v>106</v>
-      </c>
-      <c r="DD1" s="2">
-        <v>107</v>
-      </c>
-      <c r="DE1" s="2">
-        <v>108</v>
-      </c>
-      <c r="DF1" s="2">
-        <v>109</v>
-      </c>
-      <c r="DG1" s="2">
-        <v>110</v>
-      </c>
-      <c r="DH1" s="2">
-        <v>111</v>
-      </c>
-      <c r="DI1" s="2">
-        <v>112</v>
-      </c>
-      <c r="DJ1" s="2">
-        <v>113</v>
-      </c>
-      <c r="DK1" s="2">
-        <v>114</v>
-      </c>
-      <c r="DL1" s="2">
-        <v>115</v>
-      </c>
-      <c r="DM1" s="2">
-        <v>116</v>
-      </c>
-      <c r="DN1" s="2">
-        <v>117</v>
-      </c>
-      <c r="DO1" s="2">
-        <v>118</v>
-      </c>
-      <c r="DP1" s="2">
-        <v>119</v>
-      </c>
-      <c r="DQ1" s="2">
-        <v>120</v>
-      </c>
-      <c r="DR1" s="2">
-        <v>121</v>
-      </c>
-      <c r="DS1" s="2">
-        <v>122</v>
-      </c>
-      <c r="DT1" s="2">
-        <v>123</v>
-      </c>
-      <c r="DU1" s="2">
-        <v>124</v>
-      </c>
-      <c r="DV1" s="2">
-        <v>125</v>
-      </c>
-      <c r="DW1" s="2">
-        <v>126</v>
-      </c>
-      <c r="DX1" s="2">
-        <v>127</v>
-      </c>
-      <c r="DY1" s="2">
-        <v>128</v>
-      </c>
-      <c r="DZ1" s="2">
-        <v>129</v>
-      </c>
-      <c r="EA1" s="2">
-        <v>130</v>
-      </c>
-      <c r="EB1" s="2">
-        <v>131</v>
-      </c>
-      <c r="EC1" s="2">
-        <v>132</v>
-      </c>
-      <c r="ED1" s="2">
-        <v>133</v>
-      </c>
-      <c r="EE1" s="2">
-        <v>134</v>
-      </c>
-      <c r="EF1" s="2">
-        <v>135</v>
-      </c>
-      <c r="EG1" s="2">
-        <v>136</v>
-      </c>
-      <c r="EH1" s="2">
-        <v>137</v>
-      </c>
-      <c r="EI1" s="2">
-        <v>138</v>
-      </c>
-      <c r="EJ1" s="2">
-        <v>139</v>
-      </c>
-      <c r="EK1" s="2">
-        <v>140</v>
-      </c>
-      <c r="EL1" s="2">
-        <v>141</v>
-      </c>
-      <c r="EM1" s="2">
-        <v>142</v>
-      </c>
-      <c r="EN1" s="2">
-        <v>143</v>
-      </c>
-      <c r="EO1" s="2">
-        <v>144</v>
-      </c>
-      <c r="EP1" s="2">
-        <v>145</v>
-      </c>
-      <c r="EQ1" s="2">
-        <v>146</v>
-      </c>
-      <c r="ER1" s="2">
-        <v>147</v>
-      </c>
-      <c r="ES1" s="2">
-        <v>148</v>
-      </c>
-      <c r="ET1" s="2">
-        <v>149</v>
-      </c>
-      <c r="EU1" s="2">
-        <v>150</v>
-      </c>
-      <c r="EV1" s="2">
-        <v>151</v>
-      </c>
-      <c r="EW1" s="2">
-        <v>152</v>
-      </c>
-      <c r="EX1" s="2">
-        <v>153</v>
-      </c>
-      <c r="EY1" s="2">
-        <v>154</v>
-      </c>
-      <c r="EZ1" s="2">
-        <v>155</v>
-      </c>
-      <c r="FA1" s="2">
-        <v>156</v>
-      </c>
-      <c r="FB1" s="2">
-        <v>157</v>
-      </c>
-      <c r="FC1" s="2">
-        <v>158</v>
-      </c>
-      <c r="FD1" s="2">
-        <v>159</v>
-      </c>
-      <c r="FE1" s="2">
-        <v>160</v>
-      </c>
-      <c r="FF1" s="2">
-        <v>161</v>
-      </c>
-      <c r="FG1" s="2">
-        <v>162</v>
-      </c>
-      <c r="FH1" s="2">
-        <v>163</v>
-      </c>
-      <c r="FI1" s="2">
-        <v>164</v>
-      </c>
-      <c r="FJ1" s="2">
-        <v>165</v>
-      </c>
-      <c r="FK1" s="2">
-        <v>166</v>
-      </c>
-      <c r="FL1" s="2">
-        <v>167</v>
-      </c>
-      <c r="FM1" s="2">
-        <v>168</v>
-      </c>
-      <c r="FN1" s="2">
-        <v>169</v>
-      </c>
-      <c r="FO1" s="2">
-        <v>170</v>
-      </c>
-      <c r="FP1" s="2">
-        <v>171</v>
-      </c>
-      <c r="FQ1" s="2">
-        <v>172</v>
-      </c>
-      <c r="FR1" s="2">
-        <v>173</v>
-      </c>
-      <c r="FS1" s="2">
-        <v>174</v>
-      </c>
-      <c r="FT1" s="2">
-        <v>175</v>
-      </c>
-      <c r="FU1" s="2">
-        <v>176</v>
-      </c>
-      <c r="FV1" s="2">
-        <v>177</v>
-      </c>
-      <c r="FW1" s="2">
-        <v>178</v>
-      </c>
-      <c r="FX1" s="2">
-        <v>179</v>
-      </c>
-      <c r="FY1" s="2">
-        <v>180</v>
-      </c>
-      <c r="FZ1" s="2">
-        <v>181</v>
-      </c>
-      <c r="GA1" s="2">
-        <v>182</v>
-      </c>
-      <c r="GB1" s="2">
-        <v>183</v>
-      </c>
-      <c r="GC1" s="2">
-        <v>184</v>
-      </c>
-      <c r="GD1" s="2">
-        <v>185</v>
-      </c>
-      <c r="GE1" s="2">
-        <v>186</v>
-      </c>
-      <c r="GF1" s="2">
-        <v>187</v>
-      </c>
-      <c r="GG1" s="2">
-        <v>188</v>
-      </c>
-      <c r="GH1" s="2">
-        <v>189</v>
-      </c>
-      <c r="GI1" s="2">
-        <v>190</v>
-      </c>
-      <c r="GJ1" s="2">
-        <v>191</v>
-      </c>
-      <c r="GK1" s="2">
-        <v>192</v>
-      </c>
-      <c r="GL1" s="2">
-        <v>193</v>
-      </c>
-      <c r="GM1" s="2">
-        <v>194</v>
-      </c>
-      <c r="GN1" s="2">
-        <v>195</v>
-      </c>
-      <c r="GO1" s="2">
-        <v>196</v>
-      </c>
-      <c r="GP1" s="2">
-        <v>197</v>
-      </c>
-      <c r="GQ1" s="2">
-        <v>198</v>
-      </c>
-      <c r="GR1" s="2">
-        <v>199</v>
-      </c>
-      <c r="GS1" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:201">
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2203,408 +1902,8 @@
       <c r="CW2">
         <v>108</v>
       </c>
-      <c r="CX2">
-        <f>SUM(B2:B7)</f>
-        <v>1419</v>
-      </c>
-      <c r="CY2">
-        <f t="shared" ref="CY2:FJ2" si="0">SUM(C2:C7)</f>
-        <v>1474</v>
-      </c>
-      <c r="CZ2">
-        <f t="shared" si="0"/>
-        <v>1087</v>
-      </c>
-      <c r="DA2">
-        <f t="shared" si="0"/>
-        <v>1466</v>
-      </c>
-      <c r="DB2">
-        <f t="shared" si="0"/>
-        <v>1245</v>
-      </c>
-      <c r="DC2">
-        <f t="shared" si="0"/>
-        <v>1439</v>
-      </c>
-      <c r="DD2">
-        <f t="shared" si="0"/>
-        <v>1161</v>
-      </c>
-      <c r="DE2">
-        <f t="shared" si="0"/>
-        <v>1502</v>
-      </c>
-      <c r="DF2">
-        <f t="shared" si="0"/>
-        <v>1511</v>
-      </c>
-      <c r="DG2">
-        <f t="shared" si="0"/>
-        <v>1151</v>
-      </c>
-      <c r="DH2">
-        <f t="shared" si="0"/>
-        <v>1369</v>
-      </c>
-      <c r="DI2">
-        <f t="shared" si="0"/>
-        <v>1605</v>
-      </c>
-      <c r="DJ2">
-        <f t="shared" si="0"/>
-        <v>1511</v>
-      </c>
-      <c r="DK2">
-        <f t="shared" si="0"/>
-        <v>1206</v>
-      </c>
-      <c r="DL2">
-        <f t="shared" si="0"/>
-        <v>1268</v>
-      </c>
-      <c r="DM2">
-        <f t="shared" si="0"/>
-        <v>1343</v>
-      </c>
-      <c r="DN2">
-        <f t="shared" si="0"/>
-        <v>1205</v>
-      </c>
-      <c r="DO2">
-        <f t="shared" si="0"/>
-        <v>1125</v>
-      </c>
-      <c r="DP2">
-        <f t="shared" si="0"/>
-        <v>1520</v>
-      </c>
-      <c r="DQ2">
-        <f t="shared" si="0"/>
-        <v>1458</v>
-      </c>
-      <c r="DR2">
-        <f t="shared" si="0"/>
-        <v>1432</v>
-      </c>
-      <c r="DS2">
-        <f t="shared" si="0"/>
-        <v>1382</v>
-      </c>
-      <c r="DT2">
-        <f t="shared" si="0"/>
-        <v>1271</v>
-      </c>
-      <c r="DU2">
-        <f t="shared" si="0"/>
-        <v>960</v>
-      </c>
-      <c r="DV2">
-        <f t="shared" si="0"/>
-        <v>1451</v>
-      </c>
-      <c r="DW2">
-        <f t="shared" si="0"/>
-        <v>1479</v>
-      </c>
-      <c r="DX2">
-        <f t="shared" si="0"/>
-        <v>1014</v>
-      </c>
-      <c r="DY2">
-        <f t="shared" si="0"/>
-        <v>1191</v>
-      </c>
-      <c r="DZ2">
-        <f t="shared" si="0"/>
-        <v>1224</v>
-      </c>
-      <c r="EA2">
-        <f t="shared" si="0"/>
-        <v>1376</v>
-      </c>
-      <c r="EB2">
-        <f t="shared" si="0"/>
-        <v>1528</v>
-      </c>
-      <c r="EC2">
-        <f t="shared" si="0"/>
-        <v>1305</v>
-      </c>
-      <c r="ED2">
-        <f t="shared" si="0"/>
-        <v>1320</v>
-      </c>
-      <c r="EE2">
-        <f t="shared" si="0"/>
-        <v>1341</v>
-      </c>
-      <c r="EF2">
-        <f t="shared" si="0"/>
-        <v>1599</v>
-      </c>
-      <c r="EG2">
-        <f t="shared" si="0"/>
-        <v>1480</v>
-      </c>
-      <c r="EH2">
-        <f t="shared" si="0"/>
-        <v>1329</v>
-      </c>
-      <c r="EI2">
-        <f t="shared" si="0"/>
-        <v>1592</v>
-      </c>
-      <c r="EJ2">
-        <f t="shared" si="0"/>
-        <v>1211</v>
-      </c>
-      <c r="EK2">
-        <f t="shared" si="0"/>
-        <v>1425</v>
-      </c>
-      <c r="EL2">
-        <f t="shared" si="0"/>
-        <v>1254</v>
-      </c>
-      <c r="EM2">
-        <f t="shared" si="0"/>
-        <v>1319</v>
-      </c>
-      <c r="EN2">
-        <f t="shared" si="0"/>
-        <v>1248</v>
-      </c>
-      <c r="EO2">
-        <f t="shared" si="0"/>
-        <v>1292</v>
-      </c>
-      <c r="EP2">
-        <f t="shared" si="0"/>
-        <v>1330</v>
-      </c>
-      <c r="EQ2">
-        <f t="shared" si="0"/>
-        <v>1092</v>
-      </c>
-      <c r="ER2">
-        <f t="shared" si="0"/>
-        <v>1525</v>
-      </c>
-      <c r="ES2">
-        <f t="shared" si="0"/>
-        <v>1615</v>
-      </c>
-      <c r="ET2">
-        <f t="shared" si="0"/>
-        <v>1217</v>
-      </c>
-      <c r="EU2">
-        <f t="shared" si="0"/>
-        <v>1479</v>
-      </c>
-      <c r="EV2">
-        <f t="shared" si="0"/>
-        <v>1220</v>
-      </c>
-      <c r="EW2">
-        <f t="shared" si="0"/>
-        <v>1375</v>
-      </c>
-      <c r="EX2">
-        <f t="shared" si="0"/>
-        <v>1365</v>
-      </c>
-      <c r="EY2">
-        <f t="shared" si="0"/>
-        <v>1290</v>
-      </c>
-      <c r="EZ2">
-        <f t="shared" si="0"/>
-        <v>1289</v>
-      </c>
-      <c r="FA2">
-        <f t="shared" si="0"/>
-        <v>1307</v>
-      </c>
-      <c r="FB2">
-        <f t="shared" si="0"/>
-        <v>1123</v>
-      </c>
-      <c r="FC2">
-        <f t="shared" si="0"/>
-        <v>1109</v>
-      </c>
-      <c r="FD2">
-        <f t="shared" si="0"/>
-        <v>1208</v>
-      </c>
-      <c r="FE2">
-        <f t="shared" si="0"/>
-        <v>1043</v>
-      </c>
-      <c r="FF2">
-        <f t="shared" si="0"/>
-        <v>975</v>
-      </c>
-      <c r="FG2">
-        <f t="shared" si="0"/>
-        <v>1294</v>
-      </c>
-      <c r="FH2">
-        <f t="shared" si="0"/>
-        <v>1252</v>
-      </c>
-      <c r="FI2">
-        <f t="shared" si="0"/>
-        <v>1447</v>
-      </c>
-      <c r="FJ2">
-        <f t="shared" si="0"/>
-        <v>1644</v>
-      </c>
-      <c r="FK2">
-        <f t="shared" ref="FK2:GS2" si="1">SUM(BO2:BO7)</f>
-        <v>1751</v>
-      </c>
-      <c r="FL2">
-        <f t="shared" si="1"/>
-        <v>1237</v>
-      </c>
-      <c r="FM2">
-        <f t="shared" si="1"/>
-        <v>1090</v>
-      </c>
-      <c r="FN2">
-        <f t="shared" si="1"/>
-        <v>1262</v>
-      </c>
-      <c r="FO2">
-        <f t="shared" si="1"/>
-        <v>1552</v>
-      </c>
-      <c r="FP2">
-        <f t="shared" si="1"/>
-        <v>1229</v>
-      </c>
-      <c r="FQ2">
-        <f t="shared" si="1"/>
-        <v>1601</v>
-      </c>
-      <c r="FR2">
-        <f t="shared" si="1"/>
-        <v>1133</v>
-      </c>
-      <c r="FS2">
-        <f t="shared" si="1"/>
-        <v>1167</v>
-      </c>
-      <c r="FT2">
-        <f t="shared" si="1"/>
-        <v>1188</v>
-      </c>
-      <c r="FU2">
-        <f t="shared" si="1"/>
-        <v>1496</v>
-      </c>
-      <c r="FV2">
-        <f t="shared" si="1"/>
-        <v>1337</v>
-      </c>
-      <c r="FW2">
-        <f t="shared" si="1"/>
-        <v>1867</v>
-      </c>
-      <c r="FX2">
-        <f t="shared" si="1"/>
-        <v>1416</v>
-      </c>
-      <c r="FY2">
-        <f t="shared" si="1"/>
-        <v>1296</v>
-      </c>
-      <c r="FZ2">
-        <f t="shared" si="1"/>
-        <v>1444</v>
-      </c>
-      <c r="GA2">
-        <f t="shared" si="1"/>
-        <v>1515</v>
-      </c>
-      <c r="GB2">
-        <f t="shared" si="1"/>
-        <v>1156</v>
-      </c>
-      <c r="GC2">
-        <f t="shared" si="1"/>
-        <v>1162</v>
-      </c>
-      <c r="GD2">
-        <f t="shared" si="1"/>
-        <v>1583</v>
-      </c>
-      <c r="GE2">
-        <f t="shared" si="1"/>
-        <v>1437</v>
-      </c>
-      <c r="GF2">
-        <f t="shared" si="1"/>
-        <v>1281</v>
-      </c>
-      <c r="GG2">
-        <f t="shared" si="1"/>
-        <v>1364</v>
-      </c>
-      <c r="GH2">
-        <f t="shared" si="1"/>
-        <v>1630</v>
-      </c>
-      <c r="GI2">
-        <f t="shared" si="1"/>
-        <v>1479</v>
-      </c>
-      <c r="GJ2">
-        <f t="shared" si="1"/>
-        <v>1273</v>
-      </c>
-      <c r="GK2">
-        <f t="shared" si="1"/>
-        <v>1152</v>
-      </c>
-      <c r="GL2">
-        <f t="shared" si="1"/>
-        <v>1367</v>
-      </c>
-      <c r="GM2">
-        <f t="shared" si="1"/>
-        <v>1388</v>
-      </c>
-      <c r="GN2">
-        <f t="shared" si="1"/>
-        <v>1370</v>
-      </c>
-      <c r="GO2">
-        <f t="shared" si="1"/>
-        <v>1302</v>
-      </c>
-      <c r="GP2">
-        <f t="shared" si="1"/>
-        <v>1282</v>
-      </c>
-      <c r="GQ2">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-      <c r="GR2">
-        <f t="shared" si="1"/>
-        <v>1395</v>
-      </c>
-      <c r="GS2">
-        <f t="shared" si="1"/>
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:201">
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2909,7 +2208,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:201">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3214,7 +2513,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:201">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3519,7 +2818,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:201">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3824,7 +3123,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:201">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4129,7 +3428,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:201">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4433,408 +3732,8 @@
       <c r="CW8">
         <v>310</v>
       </c>
-      <c r="CX8">
-        <f t="shared" ref="CX8:CX44" si="2">SUM(B8:B13)</f>
-        <v>1608</v>
-      </c>
-      <c r="CY8">
-        <f t="shared" ref="CY8" si="3">SUM(C8:C13)</f>
-        <v>1358</v>
-      </c>
-      <c r="CZ8">
-        <f t="shared" ref="CZ8" si="4">SUM(D8:D13)</f>
-        <v>1333</v>
-      </c>
-      <c r="DA8">
-        <f t="shared" ref="DA8" si="5">SUM(E8:E13)</f>
-        <v>1372</v>
-      </c>
-      <c r="DB8">
-        <f t="shared" ref="DB8" si="6">SUM(F8:F13)</f>
-        <v>1342</v>
-      </c>
-      <c r="DC8">
-        <f t="shared" ref="DC8" si="7">SUM(G8:G13)</f>
-        <v>1323</v>
-      </c>
-      <c r="DD8">
-        <f t="shared" ref="DD8" si="8">SUM(H8:H13)</f>
-        <v>1552</v>
-      </c>
-      <c r="DE8">
-        <f t="shared" ref="DE8" si="9">SUM(I8:I13)</f>
-        <v>1005</v>
-      </c>
-      <c r="DF8">
-        <f t="shared" ref="DF8" si="10">SUM(J8:J13)</f>
-        <v>1389</v>
-      </c>
-      <c r="DG8">
-        <f t="shared" ref="DG8" si="11">SUM(K8:K13)</f>
-        <v>1503</v>
-      </c>
-      <c r="DH8">
-        <f t="shared" ref="DH8" si="12">SUM(L8:L13)</f>
-        <v>1507</v>
-      </c>
-      <c r="DI8">
-        <f t="shared" ref="DI8" si="13">SUM(M8:M13)</f>
-        <v>1387</v>
-      </c>
-      <c r="DJ8">
-        <f t="shared" ref="DJ8" si="14">SUM(N8:N13)</f>
-        <v>1501</v>
-      </c>
-      <c r="DK8">
-        <f t="shared" ref="DK8" si="15">SUM(O8:O13)</f>
-        <v>1598</v>
-      </c>
-      <c r="DL8">
-        <f t="shared" ref="DL8" si="16">SUM(P8:P13)</f>
-        <v>1247</v>
-      </c>
-      <c r="DM8">
-        <f t="shared" ref="DM8" si="17">SUM(Q8:Q13)</f>
-        <v>1186</v>
-      </c>
-      <c r="DN8">
-        <f t="shared" ref="DN8" si="18">SUM(R8:R13)</f>
-        <v>1259</v>
-      </c>
-      <c r="DO8">
-        <f t="shared" ref="DO8" si="19">SUM(S8:S13)</f>
-        <v>1913</v>
-      </c>
-      <c r="DP8">
-        <f t="shared" ref="DP8" si="20">SUM(T8:T13)</f>
-        <v>1369</v>
-      </c>
-      <c r="DQ8">
-        <f t="shared" ref="DQ8" si="21">SUM(U8:U13)</f>
-        <v>1245</v>
-      </c>
-      <c r="DR8">
-        <f t="shared" ref="DR8" si="22">SUM(V8:V13)</f>
-        <v>1366</v>
-      </c>
-      <c r="DS8">
-        <f t="shared" ref="DS8" si="23">SUM(W8:W13)</f>
-        <v>1594</v>
-      </c>
-      <c r="DT8">
-        <f t="shared" ref="DT8" si="24">SUM(X8:X13)</f>
-        <v>1351</v>
-      </c>
-      <c r="DU8">
-        <f t="shared" ref="DU8" si="25">SUM(Y8:Y13)</f>
-        <v>1570</v>
-      </c>
-      <c r="DV8">
-        <f t="shared" ref="DV8" si="26">SUM(Z8:Z13)</f>
-        <v>1398</v>
-      </c>
-      <c r="DW8">
-        <f t="shared" ref="DW8" si="27">SUM(AA8:AA13)</f>
-        <v>1307</v>
-      </c>
-      <c r="DX8">
-        <f t="shared" ref="DX8" si="28">SUM(AB8:AB13)</f>
-        <v>1504</v>
-      </c>
-      <c r="DY8">
-        <f t="shared" ref="DY8" si="29">SUM(AC8:AC13)</f>
-        <v>1485</v>
-      </c>
-      <c r="DZ8">
-        <f t="shared" ref="DZ8" si="30">SUM(AD8:AD13)</f>
-        <v>1499</v>
-      </c>
-      <c r="EA8">
-        <f t="shared" ref="EA8" si="31">SUM(AE8:AE13)</f>
-        <v>1201</v>
-      </c>
-      <c r="EB8">
-        <f t="shared" ref="EB8" si="32">SUM(AF8:AF13)</f>
-        <v>1455</v>
-      </c>
-      <c r="EC8">
-        <f t="shared" ref="EC8" si="33">SUM(AG8:AG13)</f>
-        <v>1396</v>
-      </c>
-      <c r="ED8">
-        <f t="shared" ref="ED8" si="34">SUM(AH8:AH13)</f>
-        <v>1299</v>
-      </c>
-      <c r="EE8">
-        <f t="shared" ref="EE8" si="35">SUM(AI8:AI13)</f>
-        <v>1493</v>
-      </c>
-      <c r="EF8">
-        <f t="shared" ref="EF8" si="36">SUM(AJ8:AJ13)</f>
-        <v>1102</v>
-      </c>
-      <c r="EG8">
-        <f t="shared" ref="EG8" si="37">SUM(AK8:AK13)</f>
-        <v>1107</v>
-      </c>
-      <c r="EH8">
-        <f t="shared" ref="EH8" si="38">SUM(AL8:AL13)</f>
-        <v>1218</v>
-      </c>
-      <c r="EI8">
-        <f t="shared" ref="EI8" si="39">SUM(AM8:AM13)</f>
-        <v>1491</v>
-      </c>
-      <c r="EJ8">
-        <f t="shared" ref="EJ8" si="40">SUM(AN8:AN13)</f>
-        <v>1397</v>
-      </c>
-      <c r="EK8">
-        <f t="shared" ref="EK8" si="41">SUM(AO8:AO13)</f>
-        <v>1262</v>
-      </c>
-      <c r="EL8">
-        <f t="shared" ref="EL8" si="42">SUM(AP8:AP13)</f>
-        <v>1427</v>
-      </c>
-      <c r="EM8">
-        <f t="shared" ref="EM8" si="43">SUM(AQ8:AQ13)</f>
-        <v>1377</v>
-      </c>
-      <c r="EN8">
-        <f t="shared" ref="EN8" si="44">SUM(AR8:AR13)</f>
-        <v>1263</v>
-      </c>
-      <c r="EO8">
-        <f t="shared" ref="EO8" si="45">SUM(AS8:AS13)</f>
-        <v>1288</v>
-      </c>
-      <c r="EP8">
-        <f t="shared" ref="EP8" si="46">SUM(AT8:AT13)</f>
-        <v>1006</v>
-      </c>
-      <c r="EQ8">
-        <f t="shared" ref="EQ8" si="47">SUM(AU8:AU13)</f>
-        <v>1460</v>
-      </c>
-      <c r="ER8">
-        <f t="shared" ref="ER8" si="48">SUM(AV8:AV13)</f>
-        <v>1156</v>
-      </c>
-      <c r="ES8">
-        <f t="shared" ref="ES8" si="49">SUM(AW8:AW13)</f>
-        <v>1075</v>
-      </c>
-      <c r="ET8">
-        <f t="shared" ref="ET8" si="50">SUM(AX8:AX13)</f>
-        <v>1683</v>
-      </c>
-      <c r="EU8">
-        <f t="shared" ref="EU8" si="51">SUM(AY8:AY13)</f>
-        <v>1498</v>
-      </c>
-      <c r="EV8">
-        <f t="shared" ref="EV8" si="52">SUM(AZ8:AZ13)</f>
-        <v>1404</v>
-      </c>
-      <c r="EW8">
-        <f t="shared" ref="EW8" si="53">SUM(BA8:BA13)</f>
-        <v>1486</v>
-      </c>
-      <c r="EX8">
-        <f t="shared" ref="EX8" si="54">SUM(BB8:BB13)</f>
-        <v>1476</v>
-      </c>
-      <c r="EY8">
-        <f t="shared" ref="EY8" si="55">SUM(BC8:BC13)</f>
-        <v>1088</v>
-      </c>
-      <c r="EZ8">
-        <f t="shared" ref="EZ8" si="56">SUM(BD8:BD13)</f>
-        <v>1171</v>
-      </c>
-      <c r="FA8">
-        <f t="shared" ref="FA8" si="57">SUM(BE8:BE13)</f>
-        <v>1322</v>
-      </c>
-      <c r="FB8">
-        <f t="shared" ref="FB8" si="58">SUM(BF8:BF13)</f>
-        <v>1299</v>
-      </c>
-      <c r="FC8">
-        <f t="shared" ref="FC8" si="59">SUM(BG8:BG13)</f>
-        <v>1587</v>
-      </c>
-      <c r="FD8">
-        <f t="shared" ref="FD8" si="60">SUM(BH8:BH13)</f>
-        <v>1318</v>
-      </c>
-      <c r="FE8">
-        <f t="shared" ref="FE8" si="61">SUM(BI8:BI13)</f>
-        <v>1387</v>
-      </c>
-      <c r="FF8">
-        <f t="shared" ref="FF8" si="62">SUM(BJ8:BJ13)</f>
-        <v>1339</v>
-      </c>
-      <c r="FG8">
-        <f t="shared" ref="FG8" si="63">SUM(BK8:BK13)</f>
-        <v>1448</v>
-      </c>
-      <c r="FH8">
-        <f t="shared" ref="FH8" si="64">SUM(BL8:BL13)</f>
-        <v>1294</v>
-      </c>
-      <c r="FI8">
-        <f t="shared" ref="FI8" si="65">SUM(BM8:BM13)</f>
-        <v>1252</v>
-      </c>
-      <c r="FJ8">
-        <f t="shared" ref="FJ8" si="66">SUM(BN8:BN13)</f>
-        <v>1241</v>
-      </c>
-      <c r="FK8">
-        <f t="shared" ref="FK8" si="67">SUM(BO8:BO13)</f>
-        <v>1174</v>
-      </c>
-      <c r="FL8">
-        <f t="shared" ref="FL8" si="68">SUM(BP8:BP13)</f>
-        <v>1748</v>
-      </c>
-      <c r="FM8">
-        <f t="shared" ref="FM8" si="69">SUM(BQ8:BQ13)</f>
-        <v>1341</v>
-      </c>
-      <c r="FN8">
-        <f t="shared" ref="FN8" si="70">SUM(BR8:BR13)</f>
-        <v>1462</v>
-      </c>
-      <c r="FO8">
-        <f t="shared" ref="FO8" si="71">SUM(BS8:BS13)</f>
-        <v>1129</v>
-      </c>
-      <c r="FP8">
-        <f t="shared" ref="FP8" si="72">SUM(BT8:BT13)</f>
-        <v>1304</v>
-      </c>
-      <c r="FQ8">
-        <f t="shared" ref="FQ8" si="73">SUM(BU8:BU13)</f>
-        <v>1341</v>
-      </c>
-      <c r="FR8">
-        <f t="shared" ref="FR8" si="74">SUM(BV8:BV13)</f>
-        <v>1201</v>
-      </c>
-      <c r="FS8">
-        <f t="shared" ref="FS8" si="75">SUM(BW8:BW13)</f>
-        <v>1166</v>
-      </c>
-      <c r="FT8">
-        <f t="shared" ref="FT8" si="76">SUM(BX8:BX13)</f>
-        <v>1291</v>
-      </c>
-      <c r="FU8">
-        <f t="shared" ref="FU8" si="77">SUM(BY8:BY13)</f>
-        <v>1209</v>
-      </c>
-      <c r="FV8">
-        <f t="shared" ref="FV8" si="78">SUM(BZ8:BZ13)</f>
-        <v>1238</v>
-      </c>
-      <c r="FW8">
-        <f t="shared" ref="FW8" si="79">SUM(CA8:CA13)</f>
-        <v>1266</v>
-      </c>
-      <c r="FX8">
-        <f t="shared" ref="FX8" si="80">SUM(CB8:CB13)</f>
-        <v>1324</v>
-      </c>
-      <c r="FY8">
-        <f t="shared" ref="FY8" si="81">SUM(CC8:CC13)</f>
-        <v>1562</v>
-      </c>
-      <c r="FZ8">
-        <f t="shared" ref="FZ8" si="82">SUM(CD8:CD13)</f>
-        <v>1294</v>
-      </c>
-      <c r="GA8">
-        <f t="shared" ref="GA8" si="83">SUM(CE8:CE13)</f>
-        <v>1236</v>
-      </c>
-      <c r="GB8">
-        <f t="shared" ref="GB8" si="84">SUM(CF8:CF13)</f>
-        <v>1216</v>
-      </c>
-      <c r="GC8">
-        <f t="shared" ref="GC8" si="85">SUM(CG8:CG13)</f>
-        <v>1538</v>
-      </c>
-      <c r="GD8">
-        <f t="shared" ref="GD8" si="86">SUM(CH8:CH13)</f>
-        <v>1092</v>
-      </c>
-      <c r="GE8">
-        <f t="shared" ref="GE8" si="87">SUM(CI8:CI13)</f>
-        <v>1404</v>
-      </c>
-      <c r="GF8">
-        <f t="shared" ref="GF8" si="88">SUM(CJ8:CJ13)</f>
-        <v>1369</v>
-      </c>
-      <c r="GG8">
-        <f t="shared" ref="GG8" si="89">SUM(CK8:CK13)</f>
-        <v>1487</v>
-      </c>
-      <c r="GH8">
-        <f t="shared" ref="GH8" si="90">SUM(CL8:CL13)</f>
-        <v>1336</v>
-      </c>
-      <c r="GI8">
-        <f t="shared" ref="GI8" si="91">SUM(CM8:CM13)</f>
-        <v>1307</v>
-      </c>
-      <c r="GJ8">
-        <f t="shared" ref="GJ8" si="92">SUM(CN8:CN13)</f>
-        <v>1168</v>
-      </c>
-      <c r="GK8">
-        <f t="shared" ref="GK8" si="93">SUM(CO8:CO13)</f>
-        <v>1436</v>
-      </c>
-      <c r="GL8">
-        <f t="shared" ref="GL8" si="94">SUM(CP8:CP13)</f>
-        <v>1618</v>
-      </c>
-      <c r="GM8">
-        <f t="shared" ref="GM8" si="95">SUM(CQ8:CQ13)</f>
-        <v>1651</v>
-      </c>
-      <c r="GN8">
-        <f t="shared" ref="GN8" si="96">SUM(CR8:CR13)</f>
-        <v>1048</v>
-      </c>
-      <c r="GO8">
-        <f t="shared" ref="GO8" si="97">SUM(CS8:CS13)</f>
-        <v>1358</v>
-      </c>
-      <c r="GP8">
-        <f t="shared" ref="GP8" si="98">SUM(CT8:CT13)</f>
-        <v>1511</v>
-      </c>
-      <c r="GQ8">
-        <f t="shared" ref="GQ8" si="99">SUM(CU8:CU13)</f>
-        <v>1336</v>
-      </c>
-      <c r="GR8">
-        <f t="shared" ref="GR8" si="100">SUM(CV8:CV13)</f>
-        <v>1375</v>
-      </c>
-      <c r="GS8">
-        <f t="shared" ref="GS8" si="101">SUM(CW8:CW13)</f>
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:201">
+    </row>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5139,7 +4038,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:201">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5444,7 +4343,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:201">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5749,7 +4648,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:201">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -6054,7 +4953,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:201">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -6359,7 +5258,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:201">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -6663,408 +5562,8 @@
       <c r="CW14">
         <v>225</v>
       </c>
-      <c r="CX14">
-        <f t="shared" si="2"/>
-        <v>1409</v>
-      </c>
-      <c r="CY14">
-        <f t="shared" ref="CY14" si="102">SUM(C14:C19)</f>
-        <v>1328</v>
-      </c>
-      <c r="CZ14">
-        <f t="shared" ref="CZ14" si="103">SUM(D14:D19)</f>
-        <v>1257</v>
-      </c>
-      <c r="DA14">
-        <f t="shared" ref="DA14" si="104">SUM(E14:E19)</f>
-        <v>1020</v>
-      </c>
-      <c r="DB14">
-        <f t="shared" ref="DB14" si="105">SUM(F14:F19)</f>
-        <v>1370</v>
-      </c>
-      <c r="DC14">
-        <f t="shared" ref="DC14" si="106">SUM(G14:G19)</f>
-        <v>1181</v>
-      </c>
-      <c r="DD14">
-        <f t="shared" ref="DD14" si="107">SUM(H14:H19)</f>
-        <v>1447</v>
-      </c>
-      <c r="DE14">
-        <f t="shared" ref="DE14" si="108">SUM(I14:I19)</f>
-        <v>1372</v>
-      </c>
-      <c r="DF14">
-        <f t="shared" ref="DF14" si="109">SUM(J14:J19)</f>
-        <v>1485</v>
-      </c>
-      <c r="DG14">
-        <f t="shared" ref="DG14" si="110">SUM(K14:K19)</f>
-        <v>1607</v>
-      </c>
-      <c r="DH14">
-        <f t="shared" ref="DH14" si="111">SUM(L14:L19)</f>
-        <v>1218</v>
-      </c>
-      <c r="DI14">
-        <f t="shared" ref="DI14" si="112">SUM(M14:M19)</f>
-        <v>1122</v>
-      </c>
-      <c r="DJ14">
-        <f t="shared" ref="DJ14" si="113">SUM(N14:N19)</f>
-        <v>1294</v>
-      </c>
-      <c r="DK14">
-        <f t="shared" ref="DK14" si="114">SUM(O14:O19)</f>
-        <v>1197</v>
-      </c>
-      <c r="DL14">
-        <f t="shared" ref="DL14" si="115">SUM(P14:P19)</f>
-        <v>1186</v>
-      </c>
-      <c r="DM14">
-        <f t="shared" ref="DM14" si="116">SUM(Q14:Q19)</f>
-        <v>1393</v>
-      </c>
-      <c r="DN14">
-        <f t="shared" ref="DN14" si="117">SUM(R14:R19)</f>
-        <v>1144</v>
-      </c>
-      <c r="DO14">
-        <f t="shared" ref="DO14" si="118">SUM(S14:S19)</f>
-        <v>1326</v>
-      </c>
-      <c r="DP14">
-        <f t="shared" ref="DP14" si="119">SUM(T14:T19)</f>
-        <v>1012</v>
-      </c>
-      <c r="DQ14">
-        <f t="shared" ref="DQ14" si="120">SUM(U14:U19)</f>
-        <v>1434</v>
-      </c>
-      <c r="DR14">
-        <f t="shared" ref="DR14" si="121">SUM(V14:V19)</f>
-        <v>1409</v>
-      </c>
-      <c r="DS14">
-        <f t="shared" ref="DS14" si="122">SUM(W14:W19)</f>
-        <v>1508</v>
-      </c>
-      <c r="DT14">
-        <f t="shared" ref="DT14" si="123">SUM(X14:X19)</f>
-        <v>1249</v>
-      </c>
-      <c r="DU14">
-        <f t="shared" ref="DU14" si="124">SUM(Y14:Y19)</f>
-        <v>1425</v>
-      </c>
-      <c r="DV14">
-        <f t="shared" ref="DV14" si="125">SUM(Z14:Z19)</f>
-        <v>1131</v>
-      </c>
-      <c r="DW14">
-        <f t="shared" ref="DW14" si="126">SUM(AA14:AA19)</f>
-        <v>1420</v>
-      </c>
-      <c r="DX14">
-        <f t="shared" ref="DX14" si="127">SUM(AB14:AB19)</f>
-        <v>1318</v>
-      </c>
-      <c r="DY14">
-        <f t="shared" ref="DY14" si="128">SUM(AC14:AC19)</f>
-        <v>1293</v>
-      </c>
-      <c r="DZ14">
-        <f t="shared" ref="DZ14" si="129">SUM(AD14:AD19)</f>
-        <v>1294</v>
-      </c>
-      <c r="EA14">
-        <f t="shared" ref="EA14" si="130">SUM(AE14:AE19)</f>
-        <v>1591</v>
-      </c>
-      <c r="EB14">
-        <f t="shared" ref="EB14" si="131">SUM(AF14:AF19)</f>
-        <v>1421</v>
-      </c>
-      <c r="EC14">
-        <f t="shared" ref="EC14" si="132">SUM(AG14:AG19)</f>
-        <v>1289</v>
-      </c>
-      <c r="ED14">
-        <f t="shared" ref="ED14" si="133">SUM(AH14:AH19)</f>
-        <v>1593</v>
-      </c>
-      <c r="EE14">
-        <f t="shared" ref="EE14" si="134">SUM(AI14:AI19)</f>
-        <v>1253</v>
-      </c>
-      <c r="EF14">
-        <f t="shared" ref="EF14" si="135">SUM(AJ14:AJ19)</f>
-        <v>1420</v>
-      </c>
-      <c r="EG14">
-        <f t="shared" ref="EG14" si="136">SUM(AK14:AK19)</f>
-        <v>1241</v>
-      </c>
-      <c r="EH14">
-        <f t="shared" ref="EH14" si="137">SUM(AL14:AL19)</f>
-        <v>1477</v>
-      </c>
-      <c r="EI14">
-        <f t="shared" ref="EI14" si="138">SUM(AM14:AM19)</f>
-        <v>947</v>
-      </c>
-      <c r="EJ14">
-        <f t="shared" ref="EJ14" si="139">SUM(AN14:AN19)</f>
-        <v>1348</v>
-      </c>
-      <c r="EK14">
-        <f t="shared" ref="EK14" si="140">SUM(AO14:AO19)</f>
-        <v>1216</v>
-      </c>
-      <c r="EL14">
-        <f t="shared" ref="EL14" si="141">SUM(AP14:AP19)</f>
-        <v>1275</v>
-      </c>
-      <c r="EM14">
-        <f t="shared" ref="EM14" si="142">SUM(AQ14:AQ19)</f>
-        <v>1171</v>
-      </c>
-      <c r="EN14">
-        <f t="shared" ref="EN14" si="143">SUM(AR14:AR19)</f>
-        <v>1370</v>
-      </c>
-      <c r="EO14">
-        <f t="shared" ref="EO14" si="144">SUM(AS14:AS19)</f>
-        <v>1289</v>
-      </c>
-      <c r="EP14">
-        <f t="shared" ref="EP14" si="145">SUM(AT14:AT19)</f>
-        <v>1165</v>
-      </c>
-      <c r="EQ14">
-        <f t="shared" ref="EQ14" si="146">SUM(AU14:AU19)</f>
-        <v>1193</v>
-      </c>
-      <c r="ER14">
-        <f t="shared" ref="ER14" si="147">SUM(AV14:AV19)</f>
-        <v>1092</v>
-      </c>
-      <c r="ES14">
-        <f t="shared" ref="ES14" si="148">SUM(AW14:AW19)</f>
-        <v>1408</v>
-      </c>
-      <c r="ET14">
-        <f t="shared" ref="ET14" si="149">SUM(AX14:AX19)</f>
-        <v>1115</v>
-      </c>
-      <c r="EU14">
-        <f t="shared" ref="EU14" si="150">SUM(AY14:AY19)</f>
-        <v>873</v>
-      </c>
-      <c r="EV14">
-        <f t="shared" ref="EV14" si="151">SUM(AZ14:AZ19)</f>
-        <v>1289</v>
-      </c>
-      <c r="EW14">
-        <f t="shared" ref="EW14" si="152">SUM(BA14:BA19)</f>
-        <v>1564</v>
-      </c>
-      <c r="EX14">
-        <f t="shared" ref="EX14" si="153">SUM(BB14:BB19)</f>
-        <v>954</v>
-      </c>
-      <c r="EY14">
-        <f t="shared" ref="EY14" si="154">SUM(BC14:BC19)</f>
-        <v>1359</v>
-      </c>
-      <c r="EZ14">
-        <f t="shared" ref="EZ14" si="155">SUM(BD14:BD19)</f>
-        <v>1141</v>
-      </c>
-      <c r="FA14">
-        <f t="shared" ref="FA14" si="156">SUM(BE14:BE19)</f>
-        <v>1121</v>
-      </c>
-      <c r="FB14">
-        <f t="shared" ref="FB14" si="157">SUM(BF14:BF19)</f>
-        <v>1427</v>
-      </c>
-      <c r="FC14">
-        <f t="shared" ref="FC14" si="158">SUM(BG14:BG19)</f>
-        <v>1154</v>
-      </c>
-      <c r="FD14">
-        <f t="shared" ref="FD14" si="159">SUM(BH14:BH19)</f>
-        <v>1396</v>
-      </c>
-      <c r="FE14">
-        <f t="shared" ref="FE14" si="160">SUM(BI14:BI19)</f>
-        <v>1555</v>
-      </c>
-      <c r="FF14">
-        <f t="shared" ref="FF14" si="161">SUM(BJ14:BJ19)</f>
-        <v>1321</v>
-      </c>
-      <c r="FG14">
-        <f t="shared" ref="FG14" si="162">SUM(BK14:BK19)</f>
-        <v>1558</v>
-      </c>
-      <c r="FH14">
-        <f t="shared" ref="FH14" si="163">SUM(BL14:BL19)</f>
-        <v>1302</v>
-      </c>
-      <c r="FI14">
-        <f t="shared" ref="FI14" si="164">SUM(BM14:BM19)</f>
-        <v>1745</v>
-      </c>
-      <c r="FJ14">
-        <f t="shared" ref="FJ14" si="165">SUM(BN14:BN19)</f>
-        <v>1393</v>
-      </c>
-      <c r="FK14">
-        <f t="shared" ref="FK14" si="166">SUM(BO14:BO19)</f>
-        <v>1060</v>
-      </c>
-      <c r="FL14">
-        <f t="shared" ref="FL14" si="167">SUM(BP14:BP19)</f>
-        <v>1196</v>
-      </c>
-      <c r="FM14">
-        <f t="shared" ref="FM14" si="168">SUM(BQ14:BQ19)</f>
-        <v>1180</v>
-      </c>
-      <c r="FN14">
-        <f t="shared" ref="FN14" si="169">SUM(BR14:BR19)</f>
-        <v>1331</v>
-      </c>
-      <c r="FO14">
-        <f t="shared" ref="FO14" si="170">SUM(BS14:BS19)</f>
-        <v>1456</v>
-      </c>
-      <c r="FP14">
-        <f t="shared" ref="FP14" si="171">SUM(BT14:BT19)</f>
-        <v>1611</v>
-      </c>
-      <c r="FQ14">
-        <f t="shared" ref="FQ14" si="172">SUM(BU14:BU19)</f>
-        <v>1256</v>
-      </c>
-      <c r="FR14">
-        <f t="shared" ref="FR14" si="173">SUM(BV14:BV19)</f>
-        <v>1475</v>
-      </c>
-      <c r="FS14">
-        <f t="shared" ref="FS14" si="174">SUM(BW14:BW19)</f>
-        <v>1529</v>
-      </c>
-      <c r="FT14">
-        <f t="shared" ref="FT14" si="175">SUM(BX14:BX19)</f>
-        <v>1343</v>
-      </c>
-      <c r="FU14">
-        <f t="shared" ref="FU14" si="176">SUM(BY14:BY19)</f>
-        <v>1520</v>
-      </c>
-      <c r="FV14">
-        <f t="shared" ref="FV14" si="177">SUM(BZ14:BZ19)</f>
-        <v>1283</v>
-      </c>
-      <c r="FW14">
-        <f t="shared" ref="FW14" si="178">SUM(CA14:CA19)</f>
-        <v>954</v>
-      </c>
-      <c r="FX14">
-        <f t="shared" ref="FX14" si="179">SUM(CB14:CB19)</f>
-        <v>1388</v>
-      </c>
-      <c r="FY14">
-        <f t="shared" ref="FY14" si="180">SUM(CC14:CC19)</f>
-        <v>1329</v>
-      </c>
-      <c r="FZ14">
-        <f t="shared" ref="FZ14" si="181">SUM(CD14:CD19)</f>
-        <v>1309</v>
-      </c>
-      <c r="GA14">
-        <f t="shared" ref="GA14" si="182">SUM(CE14:CE19)</f>
-        <v>1396</v>
-      </c>
-      <c r="GB14">
-        <f t="shared" ref="GB14" si="183">SUM(CF14:CF19)</f>
-        <v>1224</v>
-      </c>
-      <c r="GC14">
-        <f t="shared" ref="GC14" si="184">SUM(CG14:CG19)</f>
-        <v>1352</v>
-      </c>
-      <c r="GD14">
-        <f t="shared" ref="GD14" si="185">SUM(CH14:CH19)</f>
-        <v>1552</v>
-      </c>
-      <c r="GE14">
-        <f t="shared" ref="GE14" si="186">SUM(CI14:CI19)</f>
-        <v>1186</v>
-      </c>
-      <c r="GF14">
-        <f t="shared" ref="GF14" si="187">SUM(CJ14:CJ19)</f>
-        <v>1139</v>
-      </c>
-      <c r="GG14">
-        <f t="shared" ref="GG14" si="188">SUM(CK14:CK19)</f>
-        <v>1107</v>
-      </c>
-      <c r="GH14">
-        <f t="shared" ref="GH14" si="189">SUM(CL14:CL19)</f>
-        <v>1270</v>
-      </c>
-      <c r="GI14">
-        <f t="shared" ref="GI14" si="190">SUM(CM14:CM19)</f>
-        <v>1265</v>
-      </c>
-      <c r="GJ14">
-        <f t="shared" ref="GJ14" si="191">SUM(CN14:CN19)</f>
-        <v>1544</v>
-      </c>
-      <c r="GK14">
-        <f t="shared" ref="GK14" si="192">SUM(CO14:CO19)</f>
-        <v>1532</v>
-      </c>
-      <c r="GL14">
-        <f t="shared" ref="GL14" si="193">SUM(CP14:CP19)</f>
-        <v>1262</v>
-      </c>
-      <c r="GM14">
-        <f t="shared" ref="GM14" si="194">SUM(CQ14:CQ19)</f>
-        <v>974</v>
-      </c>
-      <c r="GN14">
-        <f t="shared" ref="GN14" si="195">SUM(CR14:CR19)</f>
-        <v>1458</v>
-      </c>
-      <c r="GO14">
-        <f t="shared" ref="GO14" si="196">SUM(CS14:CS19)</f>
-        <v>1564</v>
-      </c>
-      <c r="GP14">
-        <f t="shared" ref="GP14" si="197">SUM(CT14:CT19)</f>
-        <v>1160</v>
-      </c>
-      <c r="GQ14">
-        <f t="shared" ref="GQ14" si="198">SUM(CU14:CU19)</f>
-        <v>1470</v>
-      </c>
-      <c r="GR14">
-        <f t="shared" ref="GR14" si="199">SUM(CV14:CV19)</f>
-        <v>1228</v>
-      </c>
-      <c r="GS14">
-        <f t="shared" ref="GS14" si="200">SUM(CW14:CW19)</f>
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="15" spans="1:201">
+    </row>
+    <row r="15" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -7369,7 +5868,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:201">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -7674,7 +6173,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:201">
+    <row r="17" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -7979,7 +6478,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="1:201">
+    <row r="18" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -8284,7 +6783,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:201">
+    <row r="19" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -8589,7 +7088,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:201">
+    <row r="20" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -8893,408 +7392,8 @@
       <c r="CW20">
         <v>208</v>
       </c>
-      <c r="CX20">
-        <f t="shared" si="2"/>
-        <v>1153</v>
-      </c>
-      <c r="CY20">
-        <f t="shared" ref="CY20" si="201">SUM(C20:C25)</f>
-        <v>1293</v>
-      </c>
-      <c r="CZ20">
-        <f t="shared" ref="CZ20" si="202">SUM(D20:D25)</f>
-        <v>1387</v>
-      </c>
-      <c r="DA20">
-        <f t="shared" ref="DA20" si="203">SUM(E20:E25)</f>
-        <v>1319</v>
-      </c>
-      <c r="DB20">
-        <f t="shared" ref="DB20" si="204">SUM(F20:F25)</f>
-        <v>1461</v>
-      </c>
-      <c r="DC20">
-        <f t="shared" ref="DC20" si="205">SUM(G20:G25)</f>
-        <v>1331</v>
-      </c>
-      <c r="DD20">
-        <f t="shared" ref="DD20" si="206">SUM(H20:H25)</f>
-        <v>1465</v>
-      </c>
-      <c r="DE20">
-        <f t="shared" ref="DE20" si="207">SUM(I20:I25)</f>
-        <v>1522</v>
-      </c>
-      <c r="DF20">
-        <f t="shared" ref="DF20" si="208">SUM(J20:J25)</f>
-        <v>1232</v>
-      </c>
-      <c r="DG20">
-        <f t="shared" ref="DG20" si="209">SUM(K20:K25)</f>
-        <v>1326</v>
-      </c>
-      <c r="DH20">
-        <f t="shared" ref="DH20" si="210">SUM(L20:L25)</f>
-        <v>1195</v>
-      </c>
-      <c r="DI20">
-        <f t="shared" ref="DI20" si="211">SUM(M20:M25)</f>
-        <v>1375</v>
-      </c>
-      <c r="DJ20">
-        <f t="shared" ref="DJ20" si="212">SUM(N20:N25)</f>
-        <v>1105</v>
-      </c>
-      <c r="DK20">
-        <f t="shared" ref="DK20" si="213">SUM(O20:O25)</f>
-        <v>1363</v>
-      </c>
-      <c r="DL20">
-        <f t="shared" ref="DL20" si="214">SUM(P20:P25)</f>
-        <v>1645</v>
-      </c>
-      <c r="DM20">
-        <f t="shared" ref="DM20" si="215">SUM(Q20:Q25)</f>
-        <v>1254</v>
-      </c>
-      <c r="DN20">
-        <f t="shared" ref="DN20" si="216">SUM(R20:R25)</f>
-        <v>1531</v>
-      </c>
-      <c r="DO20">
-        <f t="shared" ref="DO20" si="217">SUM(S20:S25)</f>
-        <v>1327</v>
-      </c>
-      <c r="DP20">
-        <f t="shared" ref="DP20" si="218">SUM(T20:T25)</f>
-        <v>1496</v>
-      </c>
-      <c r="DQ20">
-        <f t="shared" ref="DQ20" si="219">SUM(U20:U25)</f>
-        <v>1276</v>
-      </c>
-      <c r="DR20">
-        <f t="shared" ref="DR20" si="220">SUM(V20:V25)</f>
-        <v>1350</v>
-      </c>
-      <c r="DS20">
-        <f t="shared" ref="DS20" si="221">SUM(W20:W25)</f>
-        <v>1099</v>
-      </c>
-      <c r="DT20">
-        <f t="shared" ref="DT20" si="222">SUM(X20:X25)</f>
-        <v>1403</v>
-      </c>
-      <c r="DU20">
-        <f t="shared" ref="DU20" si="223">SUM(Y20:Y25)</f>
-        <v>1581</v>
-      </c>
-      <c r="DV20">
-        <f t="shared" ref="DV20" si="224">SUM(Z20:Z25)</f>
-        <v>1149</v>
-      </c>
-      <c r="DW20">
-        <f t="shared" ref="DW20" si="225">SUM(AA20:AA25)</f>
-        <v>1315</v>
-      </c>
-      <c r="DX20">
-        <f t="shared" ref="DX20" si="226">SUM(AB20:AB25)</f>
-        <v>1251</v>
-      </c>
-      <c r="DY20">
-        <f t="shared" ref="DY20" si="227">SUM(AC20:AC25)</f>
-        <v>1132</v>
-      </c>
-      <c r="DZ20">
-        <f t="shared" ref="DZ20" si="228">SUM(AD20:AD25)</f>
-        <v>1107</v>
-      </c>
-      <c r="EA20">
-        <f t="shared" ref="EA20" si="229">SUM(AE20:AE25)</f>
-        <v>1338</v>
-      </c>
-      <c r="EB20">
-        <f t="shared" ref="EB20" si="230">SUM(AF20:AF25)</f>
-        <v>984</v>
-      </c>
-      <c r="EC20">
-        <f t="shared" ref="EC20" si="231">SUM(AG20:AG25)</f>
-        <v>1267</v>
-      </c>
-      <c r="ED20">
-        <f t="shared" ref="ED20" si="232">SUM(AH20:AH25)</f>
-        <v>1045</v>
-      </c>
-      <c r="EE20">
-        <f t="shared" ref="EE20" si="233">SUM(AI20:AI25)</f>
-        <v>1325</v>
-      </c>
-      <c r="EF20">
-        <f t="shared" ref="EF20" si="234">SUM(AJ20:AJ25)</f>
-        <v>1355</v>
-      </c>
-      <c r="EG20">
-        <f t="shared" ref="EG20" si="235">SUM(AK20:AK25)</f>
-        <v>1385</v>
-      </c>
-      <c r="EH20">
-        <f t="shared" ref="EH20" si="236">SUM(AL20:AL25)</f>
-        <v>1177</v>
-      </c>
-      <c r="EI20">
-        <f t="shared" ref="EI20" si="237">SUM(AM20:AM25)</f>
-        <v>1354</v>
-      </c>
-      <c r="EJ20">
-        <f t="shared" ref="EJ20" si="238">SUM(AN20:AN25)</f>
-        <v>1273</v>
-      </c>
-      <c r="EK20">
-        <f t="shared" ref="EK20" si="239">SUM(AO20:AO25)</f>
-        <v>1450</v>
-      </c>
-      <c r="EL20">
-        <f t="shared" ref="EL20" si="240">SUM(AP20:AP25)</f>
-        <v>1510</v>
-      </c>
-      <c r="EM20">
-        <f t="shared" ref="EM20" si="241">SUM(AQ20:AQ25)</f>
-        <v>1473</v>
-      </c>
-      <c r="EN20">
-        <f t="shared" ref="EN20" si="242">SUM(AR20:AR25)</f>
-        <v>1589</v>
-      </c>
-      <c r="EO20">
-        <f t="shared" ref="EO20" si="243">SUM(AS20:AS25)</f>
-        <v>1417</v>
-      </c>
-      <c r="EP20">
-        <f t="shared" ref="EP20" si="244">SUM(AT20:AT25)</f>
-        <v>1681</v>
-      </c>
-      <c r="EQ20">
-        <f t="shared" ref="EQ20" si="245">SUM(AU20:AU25)</f>
-        <v>1505</v>
-      </c>
-      <c r="ER20">
-        <f t="shared" ref="ER20" si="246">SUM(AV20:AV25)</f>
-        <v>1443</v>
-      </c>
-      <c r="ES20">
-        <f t="shared" ref="ES20" si="247">SUM(AW20:AW25)</f>
-        <v>1053</v>
-      </c>
-      <c r="ET20">
-        <f t="shared" ref="ET20" si="248">SUM(AX20:AX25)</f>
-        <v>1282</v>
-      </c>
-      <c r="EU20">
-        <f t="shared" ref="EU20" si="249">SUM(AY20:AY25)</f>
-        <v>1502</v>
-      </c>
-      <c r="EV20">
-        <f t="shared" ref="EV20" si="250">SUM(AZ20:AZ25)</f>
-        <v>1460</v>
-      </c>
-      <c r="EW20">
-        <f t="shared" ref="EW20" si="251">SUM(BA20:BA25)</f>
-        <v>1027</v>
-      </c>
-      <c r="EX20">
-        <f t="shared" ref="EX20" si="252">SUM(BB20:BB25)</f>
-        <v>1444</v>
-      </c>
-      <c r="EY20">
-        <f t="shared" ref="EY20" si="253">SUM(BC20:BC25)</f>
-        <v>1255</v>
-      </c>
-      <c r="EZ20">
-        <f t="shared" ref="EZ20" si="254">SUM(BD20:BD25)</f>
-        <v>1571</v>
-      </c>
-      <c r="FA20">
-        <f t="shared" ref="FA20" si="255">SUM(BE20:BE25)</f>
-        <v>1577</v>
-      </c>
-      <c r="FB20">
-        <f t="shared" ref="FB20" si="256">SUM(BF20:BF25)</f>
-        <v>1366</v>
-      </c>
-      <c r="FC20">
-        <f t="shared" ref="FC20" si="257">SUM(BG20:BG25)</f>
-        <v>1224</v>
-      </c>
-      <c r="FD20">
-        <f t="shared" ref="FD20" si="258">SUM(BH20:BH25)</f>
-        <v>1259</v>
-      </c>
-      <c r="FE20">
-        <f t="shared" ref="FE20" si="259">SUM(BI20:BI25)</f>
-        <v>1267</v>
-      </c>
-      <c r="FF20">
-        <f t="shared" ref="FF20" si="260">SUM(BJ20:BJ25)</f>
-        <v>1523</v>
-      </c>
-      <c r="FG20">
-        <f t="shared" ref="FG20" si="261">SUM(BK20:BK25)</f>
-        <v>1146</v>
-      </c>
-      <c r="FH20">
-        <f t="shared" ref="FH20" si="262">SUM(BL20:BL25)</f>
-        <v>1309</v>
-      </c>
-      <c r="FI20">
-        <f t="shared" ref="FI20" si="263">SUM(BM20:BM25)</f>
-        <v>1099</v>
-      </c>
-      <c r="FJ20">
-        <f t="shared" ref="FJ20" si="264">SUM(BN20:BN25)</f>
-        <v>1136</v>
-      </c>
-      <c r="FK20">
-        <f t="shared" ref="FK20" si="265">SUM(BO20:BO25)</f>
-        <v>1534</v>
-      </c>
-      <c r="FL20">
-        <f t="shared" ref="FL20" si="266">SUM(BP20:BP25)</f>
-        <v>1313</v>
-      </c>
-      <c r="FM20">
-        <f t="shared" ref="FM20" si="267">SUM(BQ20:BQ25)</f>
-        <v>1542</v>
-      </c>
-      <c r="FN20">
-        <f t="shared" ref="FN20" si="268">SUM(BR20:BR25)</f>
-        <v>1161</v>
-      </c>
-      <c r="FO20">
-        <f t="shared" ref="FO20" si="269">SUM(BS20:BS25)</f>
-        <v>1220</v>
-      </c>
-      <c r="FP20">
-        <f t="shared" ref="FP20" si="270">SUM(BT20:BT25)</f>
-        <v>1394</v>
-      </c>
-      <c r="FQ20">
-        <f t="shared" ref="FQ20" si="271">SUM(BU20:BU25)</f>
-        <v>1158</v>
-      </c>
-      <c r="FR20">
-        <f t="shared" ref="FR20" si="272">SUM(BV20:BV25)</f>
-        <v>1286</v>
-      </c>
-      <c r="FS20">
-        <f t="shared" ref="FS20" si="273">SUM(BW20:BW25)</f>
-        <v>1327</v>
-      </c>
-      <c r="FT20">
-        <f t="shared" ref="FT20" si="274">SUM(BX20:BX25)</f>
-        <v>1509</v>
-      </c>
-      <c r="FU20">
-        <f t="shared" ref="FU20" si="275">SUM(BY20:BY25)</f>
-        <v>1143</v>
-      </c>
-      <c r="FV20">
-        <f t="shared" ref="FV20" si="276">SUM(BZ20:BZ25)</f>
-        <v>1349</v>
-      </c>
-      <c r="FW20">
-        <f t="shared" ref="FW20" si="277">SUM(CA20:CA25)</f>
-        <v>1377</v>
-      </c>
-      <c r="FX20">
-        <f t="shared" ref="FX20" si="278">SUM(CB20:CB25)</f>
-        <v>1397</v>
-      </c>
-      <c r="FY20">
-        <f t="shared" ref="FY20" si="279">SUM(CC20:CC25)</f>
-        <v>1333</v>
-      </c>
-      <c r="FZ20">
-        <f t="shared" ref="FZ20" si="280">SUM(CD20:CD25)</f>
-        <v>1187</v>
-      </c>
-      <c r="GA20">
-        <f t="shared" ref="GA20" si="281">SUM(CE20:CE25)</f>
-        <v>1197</v>
-      </c>
-      <c r="GB20">
-        <f t="shared" ref="GB20" si="282">SUM(CF20:CF25)</f>
-        <v>1458</v>
-      </c>
-      <c r="GC20">
-        <f t="shared" ref="GC20" si="283">SUM(CG20:CG25)</f>
-        <v>1398</v>
-      </c>
-      <c r="GD20">
-        <f t="shared" ref="GD20" si="284">SUM(CH20:CH25)</f>
-        <v>1006</v>
-      </c>
-      <c r="GE20">
-        <f t="shared" ref="GE20" si="285">SUM(CI20:CI25)</f>
-        <v>1484</v>
-      </c>
-      <c r="GF20">
-        <f t="shared" ref="GF20" si="286">SUM(CJ20:CJ25)</f>
-        <v>1466</v>
-      </c>
-      <c r="GG20">
-        <f t="shared" ref="GG20" si="287">SUM(CK20:CK25)</f>
-        <v>1223</v>
-      </c>
-      <c r="GH20">
-        <f t="shared" ref="GH20" si="288">SUM(CL20:CL25)</f>
-        <v>1344</v>
-      </c>
-      <c r="GI20">
-        <f t="shared" ref="GI20" si="289">SUM(CM20:CM25)</f>
-        <v>1616</v>
-      </c>
-      <c r="GJ20">
-        <f t="shared" ref="GJ20" si="290">SUM(CN20:CN25)</f>
-        <v>1229</v>
-      </c>
-      <c r="GK20">
-        <f t="shared" ref="GK20" si="291">SUM(CO20:CO25)</f>
-        <v>1469</v>
-      </c>
-      <c r="GL20">
-        <f t="shared" ref="GL20" si="292">SUM(CP20:CP25)</f>
-        <v>1390</v>
-      </c>
-      <c r="GM20">
-        <f t="shared" ref="GM20" si="293">SUM(CQ20:CQ25)</f>
-        <v>1347</v>
-      </c>
-      <c r="GN20">
-        <f t="shared" ref="GN20" si="294">SUM(CR20:CR25)</f>
-        <v>1339</v>
-      </c>
-      <c r="GO20">
-        <f t="shared" ref="GO20" si="295">SUM(CS20:CS25)</f>
-        <v>1303</v>
-      </c>
-      <c r="GP20">
-        <f t="shared" ref="GP20" si="296">SUM(CT20:CT25)</f>
-        <v>1621</v>
-      </c>
-      <c r="GQ20">
-        <f t="shared" ref="GQ20" si="297">SUM(CU20:CU25)</f>
-        <v>1554</v>
-      </c>
-      <c r="GR20">
-        <f t="shared" ref="GR20" si="298">SUM(CV20:CV25)</f>
-        <v>1322</v>
-      </c>
-      <c r="GS20">
-        <f t="shared" ref="GS20" si="299">SUM(CW20:CW25)</f>
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:201">
+    </row>
+    <row r="21" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -9599,7 +7698,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:201">
+    <row r="22" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -9904,7 +8003,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:201">
+    <row r="23" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -10209,7 +8308,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="24" spans="1:201">
+    <row r="24" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -10514,7 +8613,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:201">
+    <row r="25" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -10819,7 +8918,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:201">
+    <row r="26" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -11123,408 +9222,8 @@
       <c r="CW26">
         <v>486</v>
       </c>
-      <c r="CX26">
-        <f t="shared" si="2"/>
-        <v>2262</v>
-      </c>
-      <c r="CY26">
-        <f t="shared" ref="CY26" si="300">SUM(C26:C31)</f>
-        <v>2330</v>
-      </c>
-      <c r="CZ26">
-        <f t="shared" ref="CZ26" si="301">SUM(D26:D31)</f>
-        <v>2125</v>
-      </c>
-      <c r="DA26">
-        <f t="shared" ref="DA26" si="302">SUM(E26:E31)</f>
-        <v>2587</v>
-      </c>
-      <c r="DB26">
-        <f t="shared" ref="DB26" si="303">SUM(F26:F31)</f>
-        <v>2180</v>
-      </c>
-      <c r="DC26">
-        <f t="shared" ref="DC26" si="304">SUM(G26:G31)</f>
-        <v>2310</v>
-      </c>
-      <c r="DD26">
-        <f t="shared" ref="DD26" si="305">SUM(H26:H31)</f>
-        <v>2385</v>
-      </c>
-      <c r="DE26">
-        <f t="shared" ref="DE26" si="306">SUM(I26:I31)</f>
-        <v>2150</v>
-      </c>
-      <c r="DF26">
-        <f t="shared" ref="DF26" si="307">SUM(J26:J31)</f>
-        <v>2119</v>
-      </c>
-      <c r="DG26">
-        <f t="shared" ref="DG26" si="308">SUM(K26:K31)</f>
-        <v>2125</v>
-      </c>
-      <c r="DH26">
-        <f t="shared" ref="DH26" si="309">SUM(L26:L31)</f>
-        <v>2111</v>
-      </c>
-      <c r="DI26">
-        <f t="shared" ref="DI26" si="310">SUM(M26:M31)</f>
-        <v>2239</v>
-      </c>
-      <c r="DJ26">
-        <f t="shared" ref="DJ26" si="311">SUM(N26:N31)</f>
-        <v>2232</v>
-      </c>
-      <c r="DK26">
-        <f t="shared" ref="DK26" si="312">SUM(O26:O31)</f>
-        <v>2387</v>
-      </c>
-      <c r="DL26">
-        <f t="shared" ref="DL26" si="313">SUM(P26:P31)</f>
-        <v>2201</v>
-      </c>
-      <c r="DM26">
-        <f t="shared" ref="DM26" si="314">SUM(Q26:Q31)</f>
-        <v>2417</v>
-      </c>
-      <c r="DN26">
-        <f t="shared" ref="DN26" si="315">SUM(R26:R31)</f>
-        <v>2444</v>
-      </c>
-      <c r="DO26">
-        <f t="shared" ref="DO26" si="316">SUM(S26:S31)</f>
-        <v>2045</v>
-      </c>
-      <c r="DP26">
-        <f t="shared" ref="DP26" si="317">SUM(T26:T31)</f>
-        <v>2241</v>
-      </c>
-      <c r="DQ26">
-        <f t="shared" ref="DQ26" si="318">SUM(U26:U31)</f>
-        <v>2190</v>
-      </c>
-      <c r="DR26">
-        <f t="shared" ref="DR26" si="319">SUM(V26:V31)</f>
-        <v>2010</v>
-      </c>
-      <c r="DS26">
-        <f t="shared" ref="DS26" si="320">SUM(W26:W31)</f>
-        <v>2257</v>
-      </c>
-      <c r="DT26">
-        <f t="shared" ref="DT26" si="321">SUM(X26:X31)</f>
-        <v>2214</v>
-      </c>
-      <c r="DU26">
-        <f t="shared" ref="DU26" si="322">SUM(Y26:Y31)</f>
-        <v>2085</v>
-      </c>
-      <c r="DV26">
-        <f t="shared" ref="DV26" si="323">SUM(Z26:Z31)</f>
-        <v>2414</v>
-      </c>
-      <c r="DW26">
-        <f t="shared" ref="DW26" si="324">SUM(AA26:AA31)</f>
-        <v>2272</v>
-      </c>
-      <c r="DX26">
-        <f t="shared" ref="DX26" si="325">SUM(AB26:AB31)</f>
-        <v>2360</v>
-      </c>
-      <c r="DY26">
-        <f t="shared" ref="DY26" si="326">SUM(AC26:AC31)</f>
-        <v>2242</v>
-      </c>
-      <c r="DZ26">
-        <f t="shared" ref="DZ26" si="327">SUM(AD26:AD31)</f>
-        <v>2318</v>
-      </c>
-      <c r="EA26">
-        <f t="shared" ref="EA26" si="328">SUM(AE26:AE31)</f>
-        <v>2099</v>
-      </c>
-      <c r="EB26">
-        <f t="shared" ref="EB26" si="329">SUM(AF26:AF31)</f>
-        <v>2080</v>
-      </c>
-      <c r="EC26">
-        <f t="shared" ref="EC26" si="330">SUM(AG26:AG31)</f>
-        <v>2537</v>
-      </c>
-      <c r="ED26">
-        <f t="shared" ref="ED26" si="331">SUM(AH26:AH31)</f>
-        <v>2514</v>
-      </c>
-      <c r="EE26">
-        <f t="shared" ref="EE26" si="332">SUM(AI26:AI31)</f>
-        <v>2463</v>
-      </c>
-      <c r="EF26">
-        <f t="shared" ref="EF26" si="333">SUM(AJ26:AJ31)</f>
-        <v>2333</v>
-      </c>
-      <c r="EG26">
-        <f t="shared" ref="EG26" si="334">SUM(AK26:AK31)</f>
-        <v>2404</v>
-      </c>
-      <c r="EH26">
-        <f t="shared" ref="EH26" si="335">SUM(AL26:AL31)</f>
-        <v>2384</v>
-      </c>
-      <c r="EI26">
-        <f t="shared" ref="EI26" si="336">SUM(AM26:AM31)</f>
-        <v>2051</v>
-      </c>
-      <c r="EJ26">
-        <f t="shared" ref="EJ26" si="337">SUM(AN26:AN31)</f>
-        <v>2318</v>
-      </c>
-      <c r="EK26">
-        <f t="shared" ref="EK26" si="338">SUM(AO26:AO31)</f>
-        <v>2168</v>
-      </c>
-      <c r="EL26">
-        <f t="shared" ref="EL26" si="339">SUM(AP26:AP31)</f>
-        <v>2291</v>
-      </c>
-      <c r="EM26">
-        <f t="shared" ref="EM26" si="340">SUM(AQ26:AQ31)</f>
-        <v>2199</v>
-      </c>
-      <c r="EN26">
-        <f t="shared" ref="EN26" si="341">SUM(AR26:AR31)</f>
-        <v>2018</v>
-      </c>
-      <c r="EO26">
-        <f t="shared" ref="EO26" si="342">SUM(AS26:AS31)</f>
-        <v>2214</v>
-      </c>
-      <c r="EP26">
-        <f t="shared" ref="EP26" si="343">SUM(AT26:AT31)</f>
-        <v>2268</v>
-      </c>
-      <c r="EQ26">
-        <f t="shared" ref="EQ26" si="344">SUM(AU26:AU31)</f>
-        <v>2150</v>
-      </c>
-      <c r="ER26">
-        <f t="shared" ref="ER26" si="345">SUM(AV26:AV31)</f>
-        <v>2336</v>
-      </c>
-      <c r="ES26">
-        <f t="shared" ref="ES26" si="346">SUM(AW26:AW31)</f>
-        <v>2436</v>
-      </c>
-      <c r="ET26">
-        <f t="shared" ref="ET26" si="347">SUM(AX26:AX31)</f>
-        <v>2071</v>
-      </c>
-      <c r="EU26">
-        <f t="shared" ref="EU26" si="348">SUM(AY26:AY31)</f>
-        <v>2180</v>
-      </c>
-      <c r="EV26">
-        <f t="shared" ref="EV26" si="349">SUM(AZ26:AZ31)</f>
-        <v>2264</v>
-      </c>
-      <c r="EW26">
-        <f t="shared" ref="EW26" si="350">SUM(BA26:BA31)</f>
-        <v>2095</v>
-      </c>
-      <c r="EX26">
-        <f t="shared" ref="EX26" si="351">SUM(BB26:BB31)</f>
-        <v>2210</v>
-      </c>
-      <c r="EY26">
-        <f t="shared" ref="EY26" si="352">SUM(BC26:BC31)</f>
-        <v>2292</v>
-      </c>
-      <c r="EZ26">
-        <f t="shared" ref="EZ26" si="353">SUM(BD26:BD31)</f>
-        <v>2434</v>
-      </c>
-      <c r="FA26">
-        <f t="shared" ref="FA26" si="354">SUM(BE26:BE31)</f>
-        <v>2197</v>
-      </c>
-      <c r="FB26">
-        <f t="shared" ref="FB26" si="355">SUM(BF26:BF31)</f>
-        <v>2177</v>
-      </c>
-      <c r="FC26">
-        <f t="shared" ref="FC26" si="356">SUM(BG26:BG31)</f>
-        <v>2442</v>
-      </c>
-      <c r="FD26">
-        <f t="shared" ref="FD26" si="357">SUM(BH26:BH31)</f>
-        <v>2145</v>
-      </c>
-      <c r="FE26">
-        <f t="shared" ref="FE26" si="358">SUM(BI26:BI31)</f>
-        <v>2294</v>
-      </c>
-      <c r="FF26">
-        <f t="shared" ref="FF26" si="359">SUM(BJ26:BJ31)</f>
-        <v>2249</v>
-      </c>
-      <c r="FG26">
-        <f t="shared" ref="FG26" si="360">SUM(BK26:BK31)</f>
-        <v>2474</v>
-      </c>
-      <c r="FH26">
-        <f t="shared" ref="FH26" si="361">SUM(BL26:BL31)</f>
-        <v>2559</v>
-      </c>
-      <c r="FI26">
-        <f t="shared" ref="FI26" si="362">SUM(BM26:BM31)</f>
-        <v>2216</v>
-      </c>
-      <c r="FJ26">
-        <f t="shared" ref="FJ26" si="363">SUM(BN26:BN31)</f>
-        <v>2020</v>
-      </c>
-      <c r="FK26">
-        <f t="shared" ref="FK26" si="364">SUM(BO26:BO31)</f>
-        <v>2171</v>
-      </c>
-      <c r="FL26">
-        <f t="shared" ref="FL26" si="365">SUM(BP26:BP31)</f>
-        <v>2654</v>
-      </c>
-      <c r="FM26">
-        <f t="shared" ref="FM26" si="366">SUM(BQ26:BQ31)</f>
-        <v>2346</v>
-      </c>
-      <c r="FN26">
-        <f t="shared" ref="FN26" si="367">SUM(BR26:BR31)</f>
-        <v>2415</v>
-      </c>
-      <c r="FO26">
-        <f t="shared" ref="FO26" si="368">SUM(BS26:BS31)</f>
-        <v>2340</v>
-      </c>
-      <c r="FP26">
-        <f t="shared" ref="FP26" si="369">SUM(BT26:BT31)</f>
-        <v>2317</v>
-      </c>
-      <c r="FQ26">
-        <f t="shared" ref="FQ26" si="370">SUM(BU26:BU31)</f>
-        <v>2881</v>
-      </c>
-      <c r="FR26">
-        <f t="shared" ref="FR26" si="371">SUM(BV26:BV31)</f>
-        <v>2494</v>
-      </c>
-      <c r="FS26">
-        <f t="shared" ref="FS26" si="372">SUM(BW26:BW31)</f>
-        <v>2093</v>
-      </c>
-      <c r="FT26">
-        <f t="shared" ref="FT26" si="373">SUM(BX26:BX31)</f>
-        <v>2227</v>
-      </c>
-      <c r="FU26">
-        <f t="shared" ref="FU26" si="374">SUM(BY26:BY31)</f>
-        <v>2122</v>
-      </c>
-      <c r="FV26">
-        <f t="shared" ref="FV26" si="375">SUM(BZ26:BZ31)</f>
-        <v>2211</v>
-      </c>
-      <c r="FW26">
-        <f t="shared" ref="FW26" si="376">SUM(CA26:CA31)</f>
-        <v>2048</v>
-      </c>
-      <c r="FX26">
-        <f t="shared" ref="FX26" si="377">SUM(CB26:CB31)</f>
-        <v>2485</v>
-      </c>
-      <c r="FY26">
-        <f t="shared" ref="FY26" si="378">SUM(CC26:CC31)</f>
-        <v>2272</v>
-      </c>
-      <c r="FZ26">
-        <f t="shared" ref="FZ26" si="379">SUM(CD26:CD31)</f>
-        <v>2315</v>
-      </c>
-      <c r="GA26">
-        <f t="shared" ref="GA26" si="380">SUM(CE26:CE31)</f>
-        <v>2169</v>
-      </c>
-      <c r="GB26">
-        <f t="shared" ref="GB26" si="381">SUM(CF26:CF31)</f>
-        <v>2420</v>
-      </c>
-      <c r="GC26">
-        <f t="shared" ref="GC26" si="382">SUM(CG26:CG31)</f>
-        <v>2038</v>
-      </c>
-      <c r="GD26">
-        <f t="shared" ref="GD26" si="383">SUM(CH26:CH31)</f>
-        <v>2300</v>
-      </c>
-      <c r="GE26">
-        <f t="shared" ref="GE26" si="384">SUM(CI26:CI31)</f>
-        <v>2154</v>
-      </c>
-      <c r="GF26">
-        <f t="shared" ref="GF26" si="385">SUM(CJ26:CJ31)</f>
-        <v>2265</v>
-      </c>
-      <c r="GG26">
-        <f t="shared" ref="GG26" si="386">SUM(CK26:CK31)</f>
-        <v>2514</v>
-      </c>
-      <c r="GH26">
-        <f t="shared" ref="GH26" si="387">SUM(CL26:CL31)</f>
-        <v>2203</v>
-      </c>
-      <c r="GI26">
-        <f t="shared" ref="GI26" si="388">SUM(CM26:CM31)</f>
-        <v>2505</v>
-      </c>
-      <c r="GJ26">
-        <f t="shared" ref="GJ26" si="389">SUM(CN26:CN31)</f>
-        <v>2404</v>
-      </c>
-      <c r="GK26">
-        <f t="shared" ref="GK26" si="390">SUM(CO26:CO31)</f>
-        <v>2041</v>
-      </c>
-      <c r="GL26">
-        <f t="shared" ref="GL26" si="391">SUM(CP26:CP31)</f>
-        <v>2386</v>
-      </c>
-      <c r="GM26">
-        <f t="shared" ref="GM26" si="392">SUM(CQ26:CQ31)</f>
-        <v>2148</v>
-      </c>
-      <c r="GN26">
-        <f t="shared" ref="GN26" si="393">SUM(CR26:CR31)</f>
-        <v>2408</v>
-      </c>
-      <c r="GO26">
-        <f t="shared" ref="GO26" si="394">SUM(CS26:CS31)</f>
-        <v>2279</v>
-      </c>
-      <c r="GP26">
-        <f t="shared" ref="GP26" si="395">SUM(CT26:CT31)</f>
-        <v>2002</v>
-      </c>
-      <c r="GQ26">
-        <f t="shared" ref="GQ26" si="396">SUM(CU26:CU31)</f>
-        <v>2213</v>
-      </c>
-      <c r="GR26">
-        <f t="shared" ref="GR26" si="397">SUM(CV26:CV31)</f>
-        <v>2284</v>
-      </c>
-      <c r="GS26">
-        <f t="shared" ref="GS26" si="398">SUM(CW26:CW31)</f>
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="27" spans="1:201">
+    </row>
+    <row r="27" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -11829,7 +9528,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="28" spans="1:201">
+    <row r="28" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -12134,7 +9833,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:201">
+    <row r="29" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -12439,7 +10138,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="1:201">
+    <row r="30" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -12744,7 +10443,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="31" spans="1:201">
+    <row r="31" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -13049,7 +10748,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="32" spans="1:201">
+    <row r="32" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -13353,408 +11052,8 @@
       <c r="CW32">
         <v>284</v>
       </c>
-      <c r="CX32">
-        <f t="shared" si="2"/>
-        <v>2246</v>
-      </c>
-      <c r="CY32">
-        <f t="shared" ref="CY32" si="399">SUM(C32:C37)</f>
-        <v>2101</v>
-      </c>
-      <c r="CZ32">
-        <f t="shared" ref="CZ32" si="400">SUM(D32:D37)</f>
-        <v>2409</v>
-      </c>
-      <c r="DA32">
-        <f t="shared" ref="DA32" si="401">SUM(E32:E37)</f>
-        <v>1957</v>
-      </c>
-      <c r="DB32">
-        <f t="shared" ref="DB32" si="402">SUM(F32:F37)</f>
-        <v>2675</v>
-      </c>
-      <c r="DC32">
-        <f t="shared" ref="DC32" si="403">SUM(G32:G37)</f>
-        <v>2468</v>
-      </c>
-      <c r="DD32">
-        <f t="shared" ref="DD32" si="404">SUM(H32:H37)</f>
-        <v>1878</v>
-      </c>
-      <c r="DE32">
-        <f t="shared" ref="DE32" si="405">SUM(I32:I37)</f>
-        <v>2274</v>
-      </c>
-      <c r="DF32">
-        <f t="shared" ref="DF32" si="406">SUM(J32:J37)</f>
-        <v>2303</v>
-      </c>
-      <c r="DG32">
-        <f t="shared" ref="DG32" si="407">SUM(K32:K37)</f>
-        <v>2141</v>
-      </c>
-      <c r="DH32">
-        <f t="shared" ref="DH32" si="408">SUM(L32:L37)</f>
-        <v>2147</v>
-      </c>
-      <c r="DI32">
-        <f t="shared" ref="DI32" si="409">SUM(M32:M37)</f>
-        <v>2549</v>
-      </c>
-      <c r="DJ32">
-        <f t="shared" ref="DJ32" si="410">SUM(N32:N37)</f>
-        <v>2120</v>
-      </c>
-      <c r="DK32">
-        <f t="shared" ref="DK32" si="411">SUM(O32:O37)</f>
-        <v>2308</v>
-      </c>
-      <c r="DL32">
-        <f t="shared" ref="DL32" si="412">SUM(P32:P37)</f>
-        <v>2277</v>
-      </c>
-      <c r="DM32">
-        <f t="shared" ref="DM32" si="413">SUM(Q32:Q37)</f>
-        <v>2110</v>
-      </c>
-      <c r="DN32">
-        <f t="shared" ref="DN32" si="414">SUM(R32:R37)</f>
-        <v>2300</v>
-      </c>
-      <c r="DO32">
-        <f t="shared" ref="DO32" si="415">SUM(S32:S37)</f>
-        <v>2309</v>
-      </c>
-      <c r="DP32">
-        <f t="shared" ref="DP32" si="416">SUM(T32:T37)</f>
-        <v>2484</v>
-      </c>
-      <c r="DQ32">
-        <f t="shared" ref="DQ32" si="417">SUM(U32:U37)</f>
-        <v>2325</v>
-      </c>
-      <c r="DR32">
-        <f t="shared" ref="DR32" si="418">SUM(V32:V37)</f>
-        <v>2461</v>
-      </c>
-      <c r="DS32">
-        <f t="shared" ref="DS32" si="419">SUM(W32:W37)</f>
-        <v>1992</v>
-      </c>
-      <c r="DT32">
-        <f t="shared" ref="DT32" si="420">SUM(X32:X37)</f>
-        <v>2346</v>
-      </c>
-      <c r="DU32">
-        <f t="shared" ref="DU32" si="421">SUM(Y32:Y37)</f>
-        <v>2281</v>
-      </c>
-      <c r="DV32">
-        <f t="shared" ref="DV32" si="422">SUM(Z32:Z37)</f>
-        <v>2143</v>
-      </c>
-      <c r="DW32">
-        <f t="shared" ref="DW32" si="423">SUM(AA32:AA37)</f>
-        <v>1932</v>
-      </c>
-      <c r="DX32">
-        <f t="shared" ref="DX32" si="424">SUM(AB32:AB37)</f>
-        <v>2428</v>
-      </c>
-      <c r="DY32">
-        <f t="shared" ref="DY32" si="425">SUM(AC32:AC37)</f>
-        <v>2450</v>
-      </c>
-      <c r="DZ32">
-        <f t="shared" ref="DZ32" si="426">SUM(AD32:AD37)</f>
-        <v>2193</v>
-      </c>
-      <c r="EA32">
-        <f t="shared" ref="EA32" si="427">SUM(AE32:AE37)</f>
-        <v>2190</v>
-      </c>
-      <c r="EB32">
-        <f t="shared" ref="EB32" si="428">SUM(AF32:AF37)</f>
-        <v>2469</v>
-      </c>
-      <c r="EC32">
-        <f t="shared" ref="EC32" si="429">SUM(AG32:AG37)</f>
-        <v>2192</v>
-      </c>
-      <c r="ED32">
-        <f t="shared" ref="ED32" si="430">SUM(AH32:AH37)</f>
-        <v>1980</v>
-      </c>
-      <c r="EE32">
-        <f t="shared" ref="EE32" si="431">SUM(AI32:AI37)</f>
-        <v>2055</v>
-      </c>
-      <c r="EF32">
-        <f t="shared" ref="EF32" si="432">SUM(AJ32:AJ37)</f>
-        <v>2115</v>
-      </c>
-      <c r="EG32">
-        <f t="shared" ref="EG32" si="433">SUM(AK32:AK37)</f>
-        <v>2289</v>
-      </c>
-      <c r="EH32">
-        <f t="shared" ref="EH32" si="434">SUM(AL32:AL37)</f>
-        <v>2244</v>
-      </c>
-      <c r="EI32">
-        <f t="shared" ref="EI32" si="435">SUM(AM32:AM37)</f>
-        <v>2137</v>
-      </c>
-      <c r="EJ32">
-        <f t="shared" ref="EJ32" si="436">SUM(AN32:AN37)</f>
-        <v>2541</v>
-      </c>
-      <c r="EK32">
-        <f t="shared" ref="EK32" si="437">SUM(AO32:AO37)</f>
-        <v>2491</v>
-      </c>
-      <c r="EL32">
-        <f t="shared" ref="EL32" si="438">SUM(AP32:AP37)</f>
-        <v>2263</v>
-      </c>
-      <c r="EM32">
-        <f t="shared" ref="EM32" si="439">SUM(AQ32:AQ37)</f>
-        <v>2247</v>
-      </c>
-      <c r="EN32">
-        <f t="shared" ref="EN32" si="440">SUM(AR32:AR37)</f>
-        <v>2370</v>
-      </c>
-      <c r="EO32">
-        <f t="shared" ref="EO32" si="441">SUM(AS32:AS37)</f>
-        <v>2349</v>
-      </c>
-      <c r="EP32">
-        <f t="shared" ref="EP32" si="442">SUM(AT32:AT37)</f>
-        <v>2160</v>
-      </c>
-      <c r="EQ32">
-        <f t="shared" ref="EQ32" si="443">SUM(AU32:AU37)</f>
-        <v>2225</v>
-      </c>
-      <c r="ER32">
-        <f t="shared" ref="ER32" si="444">SUM(AV32:AV37)</f>
-        <v>2193</v>
-      </c>
-      <c r="ES32">
-        <f t="shared" ref="ES32" si="445">SUM(AW32:AW37)</f>
-        <v>2270</v>
-      </c>
-      <c r="ET32">
-        <f t="shared" ref="ET32" si="446">SUM(AX32:AX37)</f>
-        <v>2529</v>
-      </c>
-      <c r="EU32">
-        <f t="shared" ref="EU32" si="447">SUM(AY32:AY37)</f>
-        <v>2553</v>
-      </c>
-      <c r="EV32">
-        <f t="shared" ref="EV32" si="448">SUM(AZ32:AZ37)</f>
-        <v>2177</v>
-      </c>
-      <c r="EW32">
-        <f t="shared" ref="EW32" si="449">SUM(BA32:BA37)</f>
-        <v>2144</v>
-      </c>
-      <c r="EX32">
-        <f t="shared" ref="EX32" si="450">SUM(BB32:BB37)</f>
-        <v>2525</v>
-      </c>
-      <c r="EY32">
-        <f t="shared" ref="EY32" si="451">SUM(BC32:BC37)</f>
-        <v>2687</v>
-      </c>
-      <c r="EZ32">
-        <f t="shared" ref="EZ32" si="452">SUM(BD32:BD37)</f>
-        <v>2236</v>
-      </c>
-      <c r="FA32">
-        <f t="shared" ref="FA32" si="453">SUM(BE32:BE37)</f>
-        <v>2234</v>
-      </c>
-      <c r="FB32">
-        <f t="shared" ref="FB32" si="454">SUM(BF32:BF37)</f>
-        <v>2347</v>
-      </c>
-      <c r="FC32">
-        <f t="shared" ref="FC32" si="455">SUM(BG32:BG37)</f>
-        <v>2093</v>
-      </c>
-      <c r="FD32">
-        <f t="shared" ref="FD32" si="456">SUM(BH32:BH37)</f>
-        <v>2306</v>
-      </c>
-      <c r="FE32">
-        <f t="shared" ref="FE32" si="457">SUM(BI32:BI37)</f>
-        <v>2411</v>
-      </c>
-      <c r="FF32">
-        <f t="shared" ref="FF32" si="458">SUM(BJ32:BJ37)</f>
-        <v>2329</v>
-      </c>
-      <c r="FG32">
-        <f t="shared" ref="FG32" si="459">SUM(BK32:BK37)</f>
-        <v>2337</v>
-      </c>
-      <c r="FH32">
-        <f t="shared" ref="FH32" si="460">SUM(BL32:BL37)</f>
-        <v>2182</v>
-      </c>
-      <c r="FI32">
-        <f t="shared" ref="FI32" si="461">SUM(BM32:BM37)</f>
-        <v>2331</v>
-      </c>
-      <c r="FJ32">
-        <f t="shared" ref="FJ32" si="462">SUM(BN32:BN37)</f>
-        <v>2413</v>
-      </c>
-      <c r="FK32">
-        <f t="shared" ref="FK32" si="463">SUM(BO32:BO37)</f>
-        <v>2128</v>
-      </c>
-      <c r="FL32">
-        <f t="shared" ref="FL32" si="464">SUM(BP32:BP37)</f>
-        <v>2198</v>
-      </c>
-      <c r="FM32">
-        <f t="shared" ref="FM32" si="465">SUM(BQ32:BQ37)</f>
-        <v>2203</v>
-      </c>
-      <c r="FN32">
-        <f t="shared" ref="FN32" si="466">SUM(BR32:BR37)</f>
-        <v>2333</v>
-      </c>
-      <c r="FO32">
-        <f t="shared" ref="FO32" si="467">SUM(BS32:BS37)</f>
-        <v>2127</v>
-      </c>
-      <c r="FP32">
-        <f t="shared" ref="FP32" si="468">SUM(BT32:BT37)</f>
-        <v>2086</v>
-      </c>
-      <c r="FQ32">
-        <f t="shared" ref="FQ32" si="469">SUM(BU32:BU37)</f>
-        <v>2154</v>
-      </c>
-      <c r="FR32">
-        <f t="shared" ref="FR32" si="470">SUM(BV32:BV37)</f>
-        <v>2217</v>
-      </c>
-      <c r="FS32">
-        <f t="shared" ref="FS32" si="471">SUM(BW32:BW37)</f>
-        <v>2452</v>
-      </c>
-      <c r="FT32">
-        <f t="shared" ref="FT32" si="472">SUM(BX32:BX37)</f>
-        <v>2433</v>
-      </c>
-      <c r="FU32">
-        <f t="shared" ref="FU32" si="473">SUM(BY32:BY37)</f>
-        <v>2308</v>
-      </c>
-      <c r="FV32">
-        <f t="shared" ref="FV32" si="474">SUM(BZ32:BZ37)</f>
-        <v>2197</v>
-      </c>
-      <c r="FW32">
-        <f t="shared" ref="FW32" si="475">SUM(CA32:CA37)</f>
-        <v>2411</v>
-      </c>
-      <c r="FX32">
-        <f t="shared" ref="FX32" si="476">SUM(CB32:CB37)</f>
-        <v>2079</v>
-      </c>
-      <c r="FY32">
-        <f t="shared" ref="FY32" si="477">SUM(CC32:CC37)</f>
-        <v>2041</v>
-      </c>
-      <c r="FZ32">
-        <f t="shared" ref="FZ32" si="478">SUM(CD32:CD37)</f>
-        <v>2255</v>
-      </c>
-      <c r="GA32">
-        <f t="shared" ref="GA32" si="479">SUM(CE32:CE37)</f>
-        <v>2583</v>
-      </c>
-      <c r="GB32">
-        <f t="shared" ref="GB32" si="480">SUM(CF32:CF37)</f>
-        <v>2220</v>
-      </c>
-      <c r="GC32">
-        <f t="shared" ref="GC32" si="481">SUM(CG32:CG37)</f>
-        <v>2116</v>
-      </c>
-      <c r="GD32">
-        <f t="shared" ref="GD32" si="482">SUM(CH32:CH37)</f>
-        <v>2127</v>
-      </c>
-      <c r="GE32">
-        <f t="shared" ref="GE32" si="483">SUM(CI32:CI37)</f>
-        <v>2012</v>
-      </c>
-      <c r="GF32">
-        <f t="shared" ref="GF32" si="484">SUM(CJ32:CJ37)</f>
-        <v>2004</v>
-      </c>
-      <c r="GG32">
-        <f t="shared" ref="GG32" si="485">SUM(CK32:CK37)</f>
-        <v>2259</v>
-      </c>
-      <c r="GH32">
-        <f t="shared" ref="GH32" si="486">SUM(CL32:CL37)</f>
-        <v>2359</v>
-      </c>
-      <c r="GI32">
-        <f t="shared" ref="GI32" si="487">SUM(CM32:CM37)</f>
-        <v>2226</v>
-      </c>
-      <c r="GJ32">
-        <f t="shared" ref="GJ32" si="488">SUM(CN32:CN37)</f>
-        <v>2182</v>
-      </c>
-      <c r="GK32">
-        <f t="shared" ref="GK32" si="489">SUM(CO32:CO37)</f>
-        <v>1851</v>
-      </c>
-      <c r="GL32">
-        <f t="shared" ref="GL32" si="490">SUM(CP32:CP37)</f>
-        <v>2173</v>
-      </c>
-      <c r="GM32">
-        <f t="shared" ref="GM32" si="491">SUM(CQ32:CQ37)</f>
-        <v>2294</v>
-      </c>
-      <c r="GN32">
-        <f t="shared" ref="GN32" si="492">SUM(CR32:CR37)</f>
-        <v>2058</v>
-      </c>
-      <c r="GO32">
-        <f t="shared" ref="GO32" si="493">SUM(CS32:CS37)</f>
-        <v>2317</v>
-      </c>
-      <c r="GP32">
-        <f t="shared" ref="GP32" si="494">SUM(CT32:CT37)</f>
-        <v>2136</v>
-      </c>
-      <c r="GQ32">
-        <f t="shared" ref="GQ32" si="495">SUM(CU32:CU37)</f>
-        <v>2171</v>
-      </c>
-      <c r="GR32">
-        <f t="shared" ref="GR32" si="496">SUM(CV32:CV37)</f>
-        <v>2255</v>
-      </c>
-      <c r="GS32">
-        <f t="shared" ref="GS32" si="497">SUM(CW32:CW37)</f>
-        <v>2121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:201">
+    </row>
+    <row r="33" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -14059,7 +11358,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="34" spans="1:201">
+    <row r="34" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -14364,7 +11663,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="35" spans="1:201">
+    <row r="35" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -14669,7 +11968,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="36" spans="1:201">
+    <row r="36" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -14974,7 +12273,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="37" spans="1:201">
+    <row r="37" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -15279,7 +12578,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="38" spans="1:201">
+    <row r="38" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -15583,408 +12882,8 @@
       <c r="CW38">
         <v>368</v>
       </c>
-      <c r="CX38">
-        <f t="shared" si="2"/>
-        <v>2024</v>
-      </c>
-      <c r="CY38">
-        <f t="shared" ref="CY38" si="498">SUM(C38:C43)</f>
-        <v>2199</v>
-      </c>
-      <c r="CZ38">
-        <f t="shared" ref="CZ38" si="499">SUM(D38:D43)</f>
-        <v>2506</v>
-      </c>
-      <c r="DA38">
-        <f t="shared" ref="DA38" si="500">SUM(E38:E43)</f>
-        <v>2404</v>
-      </c>
-      <c r="DB38">
-        <f t="shared" ref="DB38" si="501">SUM(F38:F43)</f>
-        <v>2145</v>
-      </c>
-      <c r="DC38">
-        <f t="shared" ref="DC38" si="502">SUM(G38:G43)</f>
-        <v>2204</v>
-      </c>
-      <c r="DD38">
-        <f t="shared" ref="DD38" si="503">SUM(H38:H43)</f>
-        <v>2326</v>
-      </c>
-      <c r="DE38">
-        <f t="shared" ref="DE38" si="504">SUM(I38:I43)</f>
-        <v>2273</v>
-      </c>
-      <c r="DF38">
-        <f t="shared" ref="DF38" si="505">SUM(J38:J43)</f>
-        <v>2220</v>
-      </c>
-      <c r="DG38">
-        <f t="shared" ref="DG38" si="506">SUM(K38:K43)</f>
-        <v>2279</v>
-      </c>
-      <c r="DH38">
-        <f t="shared" ref="DH38" si="507">SUM(L38:L43)</f>
-        <v>2344</v>
-      </c>
-      <c r="DI38">
-        <f t="shared" ref="DI38" si="508">SUM(M38:M43)</f>
-        <v>1909</v>
-      </c>
-      <c r="DJ38">
-        <f t="shared" ref="DJ38" si="509">SUM(N38:N43)</f>
-        <v>2279</v>
-      </c>
-      <c r="DK38">
-        <f t="shared" ref="DK38" si="510">SUM(O38:O43)</f>
-        <v>2309</v>
-      </c>
-      <c r="DL38">
-        <f t="shared" ref="DL38" si="511">SUM(P38:P43)</f>
-        <v>2408</v>
-      </c>
-      <c r="DM38">
-        <f t="shared" ref="DM38" si="512">SUM(Q38:Q43)</f>
-        <v>2509</v>
-      </c>
-      <c r="DN38">
-        <f t="shared" ref="DN38" si="513">SUM(R38:R43)</f>
-        <v>2430</v>
-      </c>
-      <c r="DO38">
-        <f t="shared" ref="DO38" si="514">SUM(S38:S43)</f>
-        <v>2290</v>
-      </c>
-      <c r="DP38">
-        <f t="shared" ref="DP38" si="515">SUM(T38:T43)</f>
-        <v>2091</v>
-      </c>
-      <c r="DQ38">
-        <f t="shared" ref="DQ38" si="516">SUM(U38:U43)</f>
-        <v>2275</v>
-      </c>
-      <c r="DR38">
-        <f t="shared" ref="DR38" si="517">SUM(V38:V43)</f>
-        <v>2466</v>
-      </c>
-      <c r="DS38">
-        <f t="shared" ref="DS38" si="518">SUM(W38:W43)</f>
-        <v>2388</v>
-      </c>
-      <c r="DT38">
-        <f t="shared" ref="DT38" si="519">SUM(X38:X43)</f>
-        <v>2220</v>
-      </c>
-      <c r="DU38">
-        <f t="shared" ref="DU38" si="520">SUM(Y38:Y43)</f>
-        <v>2144</v>
-      </c>
-      <c r="DV38">
-        <f t="shared" ref="DV38" si="521">SUM(Z38:Z43)</f>
-        <v>2247</v>
-      </c>
-      <c r="DW38">
-        <f t="shared" ref="DW38" si="522">SUM(AA38:AA43)</f>
-        <v>2380</v>
-      </c>
-      <c r="DX38">
-        <f t="shared" ref="DX38" si="523">SUM(AB38:AB43)</f>
-        <v>2390</v>
-      </c>
-      <c r="DY38">
-        <f t="shared" ref="DY38" si="524">SUM(AC38:AC43)</f>
-        <v>2399</v>
-      </c>
-      <c r="DZ38">
-        <f t="shared" ref="DZ38" si="525">SUM(AD38:AD43)</f>
-        <v>2365</v>
-      </c>
-      <c r="EA38">
-        <f t="shared" ref="EA38" si="526">SUM(AE38:AE43)</f>
-        <v>2322</v>
-      </c>
-      <c r="EB38">
-        <f t="shared" ref="EB38" si="527">SUM(AF38:AF43)</f>
-        <v>2249</v>
-      </c>
-      <c r="EC38">
-        <f t="shared" ref="EC38" si="528">SUM(AG38:AG43)</f>
-        <v>2306</v>
-      </c>
-      <c r="ED38">
-        <f t="shared" ref="ED38" si="529">SUM(AH38:AH43)</f>
-        <v>2277</v>
-      </c>
-      <c r="EE38">
-        <f t="shared" ref="EE38" si="530">SUM(AI38:AI43)</f>
-        <v>2206</v>
-      </c>
-      <c r="EF38">
-        <f t="shared" ref="EF38" si="531">SUM(AJ38:AJ43)</f>
-        <v>2288</v>
-      </c>
-      <c r="EG38">
-        <f t="shared" ref="EG38" si="532">SUM(AK38:AK43)</f>
-        <v>2068</v>
-      </c>
-      <c r="EH38">
-        <f t="shared" ref="EH38" si="533">SUM(AL38:AL43)</f>
-        <v>2309</v>
-      </c>
-      <c r="EI38">
-        <f t="shared" ref="EI38" si="534">SUM(AM38:AM43)</f>
-        <v>2666</v>
-      </c>
-      <c r="EJ38">
-        <f t="shared" ref="EJ38" si="535">SUM(AN38:AN43)</f>
-        <v>2105</v>
-      </c>
-      <c r="EK38">
-        <f t="shared" ref="EK38" si="536">SUM(AO38:AO43)</f>
-        <v>2473</v>
-      </c>
-      <c r="EL38">
-        <f t="shared" ref="EL38" si="537">SUM(AP38:AP43)</f>
-        <v>2114</v>
-      </c>
-      <c r="EM38">
-        <f t="shared" ref="EM38" si="538">SUM(AQ38:AQ43)</f>
-        <v>2241</v>
-      </c>
-      <c r="EN38">
-        <f t="shared" ref="EN38" si="539">SUM(AR38:AR43)</f>
-        <v>2192</v>
-      </c>
-      <c r="EO38">
-        <f t="shared" ref="EO38" si="540">SUM(AS38:AS43)</f>
-        <v>2099</v>
-      </c>
-      <c r="EP38">
-        <f t="shared" ref="EP38" si="541">SUM(AT38:AT43)</f>
-        <v>2298</v>
-      </c>
-      <c r="EQ38">
-        <f t="shared" ref="EQ38" si="542">SUM(AU38:AU43)</f>
-        <v>2341</v>
-      </c>
-      <c r="ER38">
-        <f t="shared" ref="ER38" si="543">SUM(AV38:AV43)</f>
-        <v>2108</v>
-      </c>
-      <c r="ES38">
-        <f t="shared" ref="ES38" si="544">SUM(AW38:AW43)</f>
-        <v>2214</v>
-      </c>
-      <c r="ET38">
-        <f t="shared" ref="ET38" si="545">SUM(AX38:AX43)</f>
-        <v>2365</v>
-      </c>
-      <c r="EU38">
-        <f t="shared" ref="EU38" si="546">SUM(AY38:AY43)</f>
-        <v>2231</v>
-      </c>
-      <c r="EV38">
-        <f t="shared" ref="EV38" si="547">SUM(AZ38:AZ43)</f>
-        <v>2288</v>
-      </c>
-      <c r="EW38">
-        <f t="shared" ref="EW38" si="548">SUM(BA38:BA43)</f>
-        <v>1970</v>
-      </c>
-      <c r="EX38">
-        <f t="shared" ref="EX38" si="549">SUM(BB38:BB43)</f>
-        <v>2084</v>
-      </c>
-      <c r="EY38">
-        <f t="shared" ref="EY38" si="550">SUM(BC38:BC43)</f>
-        <v>2252</v>
-      </c>
-      <c r="EZ38">
-        <f t="shared" ref="EZ38" si="551">SUM(BD38:BD43)</f>
-        <v>2388</v>
-      </c>
-      <c r="FA38">
-        <f t="shared" ref="FA38" si="552">SUM(BE38:BE43)</f>
-        <v>2332</v>
-      </c>
-      <c r="FB38">
-        <f t="shared" ref="FB38" si="553">SUM(BF38:BF43)</f>
-        <v>2199</v>
-      </c>
-      <c r="FC38">
-        <f t="shared" ref="FC38" si="554">SUM(BG38:BG43)</f>
-        <v>2425</v>
-      </c>
-      <c r="FD38">
-        <f t="shared" ref="FD38" si="555">SUM(BH38:BH43)</f>
-        <v>2657</v>
-      </c>
-      <c r="FE38">
-        <f t="shared" ref="FE38" si="556">SUM(BI38:BI43)</f>
-        <v>2319</v>
-      </c>
-      <c r="FF38">
-        <f t="shared" ref="FF38" si="557">SUM(BJ38:BJ43)</f>
-        <v>2288</v>
-      </c>
-      <c r="FG38">
-        <f t="shared" ref="FG38" si="558">SUM(BK38:BK43)</f>
-        <v>2174</v>
-      </c>
-      <c r="FH38">
-        <f t="shared" ref="FH38" si="559">SUM(BL38:BL43)</f>
-        <v>2111</v>
-      </c>
-      <c r="FI38">
-        <f t="shared" ref="FI38" si="560">SUM(BM38:BM43)</f>
-        <v>2078</v>
-      </c>
-      <c r="FJ38">
-        <f t="shared" ref="FJ38" si="561">SUM(BN38:BN43)</f>
-        <v>2320</v>
-      </c>
-      <c r="FK38">
-        <f t="shared" ref="FK38" si="562">SUM(BO38:BO43)</f>
-        <v>2488</v>
-      </c>
-      <c r="FL38">
-        <f t="shared" ref="FL38" si="563">SUM(BP38:BP43)</f>
-        <v>2236</v>
-      </c>
-      <c r="FM38">
-        <f t="shared" ref="FM38" si="564">SUM(BQ38:BQ43)</f>
-        <v>2421</v>
-      </c>
-      <c r="FN38">
-        <f t="shared" ref="FN38" si="565">SUM(BR38:BR43)</f>
-        <v>2301</v>
-      </c>
-      <c r="FO38">
-        <f t="shared" ref="FO38" si="566">SUM(BS38:BS43)</f>
-        <v>2166</v>
-      </c>
-      <c r="FP38">
-        <f t="shared" ref="FP38" si="567">SUM(BT38:BT43)</f>
-        <v>2477</v>
-      </c>
-      <c r="FQ38">
-        <f t="shared" ref="FQ38" si="568">SUM(BU38:BU43)</f>
-        <v>2145</v>
-      </c>
-      <c r="FR38">
-        <f t="shared" ref="FR38" si="569">SUM(BV38:BV43)</f>
-        <v>2090</v>
-      </c>
-      <c r="FS38">
-        <f t="shared" ref="FS38" si="570">SUM(BW38:BW43)</f>
-        <v>2304</v>
-      </c>
-      <c r="FT38">
-        <f t="shared" ref="FT38" si="571">SUM(BX38:BX43)</f>
-        <v>1910</v>
-      </c>
-      <c r="FU38">
-        <f t="shared" ref="FU38" si="572">SUM(BY38:BY43)</f>
-        <v>2310</v>
-      </c>
-      <c r="FV38">
-        <f t="shared" ref="FV38" si="573">SUM(BZ38:BZ43)</f>
-        <v>2409</v>
-      </c>
-      <c r="FW38">
-        <f t="shared" ref="FW38" si="574">SUM(CA38:CA43)</f>
-        <v>2305</v>
-      </c>
-      <c r="FX38">
-        <f t="shared" ref="FX38" si="575">SUM(CB38:CB43)</f>
-        <v>2147</v>
-      </c>
-      <c r="FY38">
-        <f t="shared" ref="FY38" si="576">SUM(CC38:CC43)</f>
-        <v>2172</v>
-      </c>
-      <c r="FZ38">
-        <f t="shared" ref="FZ38" si="577">SUM(CD38:CD43)</f>
-        <v>2269</v>
-      </c>
-      <c r="GA38">
-        <f t="shared" ref="GA38" si="578">SUM(CE38:CE43)</f>
-        <v>2073</v>
-      </c>
-      <c r="GB38">
-        <f t="shared" ref="GB38" si="579">SUM(CF38:CF43)</f>
-        <v>2397</v>
-      </c>
-      <c r="GC38">
-        <f t="shared" ref="GC38" si="580">SUM(CG38:CG43)</f>
-        <v>2310</v>
-      </c>
-      <c r="GD38">
-        <f t="shared" ref="GD38" si="581">SUM(CH38:CH43)</f>
-        <v>2481</v>
-      </c>
-      <c r="GE38">
-        <f t="shared" ref="GE38" si="582">SUM(CI38:CI43)</f>
-        <v>2394</v>
-      </c>
-      <c r="GF38">
-        <f t="shared" ref="GF38" si="583">SUM(CJ38:CJ43)</f>
-        <v>2472</v>
-      </c>
-      <c r="GG38">
-        <f t="shared" ref="GG38" si="584">SUM(CK38:CK43)</f>
-        <v>2091</v>
-      </c>
-      <c r="GH38">
-        <f t="shared" ref="GH38" si="585">SUM(CL38:CL43)</f>
-        <v>2203</v>
-      </c>
-      <c r="GI38">
-        <f t="shared" ref="GI38" si="586">SUM(CM38:CM43)</f>
-        <v>1891</v>
-      </c>
-      <c r="GJ38">
-        <f t="shared" ref="GJ38" si="587">SUM(CN38:CN43)</f>
-        <v>2323</v>
-      </c>
-      <c r="GK38">
-        <f t="shared" ref="GK38" si="588">SUM(CO38:CO43)</f>
-        <v>2364</v>
-      </c>
-      <c r="GL38">
-        <f t="shared" ref="GL38" si="589">SUM(CP38:CP43)</f>
-        <v>2055</v>
-      </c>
-      <c r="GM38">
-        <f t="shared" ref="GM38" si="590">SUM(CQ38:CQ43)</f>
-        <v>2698</v>
-      </c>
-      <c r="GN38">
-        <f t="shared" ref="GN38" si="591">SUM(CR38:CR43)</f>
-        <v>2319</v>
-      </c>
-      <c r="GO38">
-        <f t="shared" ref="GO38" si="592">SUM(CS38:CS43)</f>
-        <v>2196</v>
-      </c>
-      <c r="GP38">
-        <f t="shared" ref="GP38" si="593">SUM(CT38:CT43)</f>
-        <v>2315</v>
-      </c>
-      <c r="GQ38">
-        <f t="shared" ref="GQ38" si="594">SUM(CU38:CU43)</f>
-        <v>2204</v>
-      </c>
-      <c r="GR38">
-        <f t="shared" ref="GR38" si="595">SUM(CV38:CV43)</f>
-        <v>2289</v>
-      </c>
-      <c r="GS38">
-        <f t="shared" ref="GS38" si="596">SUM(CW38:CW43)</f>
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="39" spans="1:201">
+    </row>
+    <row r="39" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -16289,7 +13188,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:201">
+    <row r="40" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -16594,7 +13493,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="41" spans="1:201">
+    <row r="41" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -16899,7 +13798,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="42" spans="1:201">
+    <row r="42" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -17204,7 +14103,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="43" spans="1:201">
+    <row r="43" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -17509,7 +14408,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="44" spans="1:201">
+    <row r="44" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -17813,408 +14712,8 @@
       <c r="CW44">
         <v>479</v>
       </c>
-      <c r="CX44">
-        <f t="shared" si="2"/>
-        <v>2305</v>
-      </c>
-      <c r="CY44">
-        <f t="shared" ref="CY44" si="597">SUM(C44:C49)</f>
-        <v>2340</v>
-      </c>
-      <c r="CZ44">
-        <f t="shared" ref="CZ44" si="598">SUM(D44:D49)</f>
-        <v>2317</v>
-      </c>
-      <c r="DA44">
-        <f t="shared" ref="DA44" si="599">SUM(E44:E49)</f>
-        <v>2300</v>
-      </c>
-      <c r="DB44">
-        <f t="shared" ref="DB44" si="600">SUM(F44:F49)</f>
-        <v>2004</v>
-      </c>
-      <c r="DC44">
-        <f t="shared" ref="DC44" si="601">SUM(G44:G49)</f>
-        <v>2170</v>
-      </c>
-      <c r="DD44">
-        <f t="shared" ref="DD44" si="602">SUM(H44:H49)</f>
-        <v>2207</v>
-      </c>
-      <c r="DE44">
-        <f t="shared" ref="DE44" si="603">SUM(I44:I49)</f>
-        <v>2326</v>
-      </c>
-      <c r="DF44">
-        <f t="shared" ref="DF44" si="604">SUM(J44:J49)</f>
-        <v>2164</v>
-      </c>
-      <c r="DG44">
-        <f t="shared" ref="DG44" si="605">SUM(K44:K49)</f>
-        <v>2289</v>
-      </c>
-      <c r="DH44">
-        <f t="shared" ref="DH44" si="606">SUM(L44:L49)</f>
-        <v>2535</v>
-      </c>
-      <c r="DI44">
-        <f t="shared" ref="DI44" si="607">SUM(M44:M49)</f>
-        <v>2237</v>
-      </c>
-      <c r="DJ44">
-        <f t="shared" ref="DJ44" si="608">SUM(N44:N49)</f>
-        <v>2384</v>
-      </c>
-      <c r="DK44">
-        <f t="shared" ref="DK44" si="609">SUM(O44:O49)</f>
-        <v>2056</v>
-      </c>
-      <c r="DL44">
-        <f t="shared" ref="DL44" si="610">SUM(P44:P49)</f>
-        <v>2193</v>
-      </c>
-      <c r="DM44">
-        <f t="shared" ref="DM44" si="611">SUM(Q44:Q49)</f>
-        <v>2212</v>
-      </c>
-      <c r="DN44">
-        <f t="shared" ref="DN44" si="612">SUM(R44:R49)</f>
-        <v>2113</v>
-      </c>
-      <c r="DO44">
-        <f t="shared" ref="DO44" si="613">SUM(S44:S49)</f>
-        <v>2087</v>
-      </c>
-      <c r="DP44">
-        <f t="shared" ref="DP44" si="614">SUM(T44:T49)</f>
-        <v>2211</v>
-      </c>
-      <c r="DQ44">
-        <f t="shared" ref="DQ44" si="615">SUM(U44:U49)</f>
-        <v>2223</v>
-      </c>
-      <c r="DR44">
-        <f t="shared" ref="DR44" si="616">SUM(V44:V49)</f>
-        <v>1930</v>
-      </c>
-      <c r="DS44">
-        <f t="shared" ref="DS44" si="617">SUM(W44:W49)</f>
-        <v>2206</v>
-      </c>
-      <c r="DT44">
-        <f t="shared" ref="DT44" si="618">SUM(X44:X49)</f>
-        <v>2371</v>
-      </c>
-      <c r="DU44">
-        <f t="shared" ref="DU44" si="619">SUM(Y44:Y49)</f>
-        <v>2374</v>
-      </c>
-      <c r="DV44">
-        <f t="shared" ref="DV44" si="620">SUM(Z44:Z49)</f>
-        <v>2491</v>
-      </c>
-      <c r="DW44">
-        <f t="shared" ref="DW44" si="621">SUM(AA44:AA49)</f>
-        <v>2317</v>
-      </c>
-      <c r="DX44">
-        <f t="shared" ref="DX44" si="622">SUM(AB44:AB49)</f>
-        <v>2158</v>
-      </c>
-      <c r="DY44">
-        <f t="shared" ref="DY44" si="623">SUM(AC44:AC49)</f>
-        <v>2233</v>
-      </c>
-      <c r="DZ44">
-        <f t="shared" ref="DZ44" si="624">SUM(AD44:AD49)</f>
-        <v>2426</v>
-      </c>
-      <c r="EA44">
-        <f t="shared" ref="EA44" si="625">SUM(AE44:AE49)</f>
-        <v>2306</v>
-      </c>
-      <c r="EB44">
-        <f t="shared" ref="EB44" si="626">SUM(AF44:AF49)</f>
-        <v>2237</v>
-      </c>
-      <c r="EC44">
-        <f t="shared" ref="EC44" si="627">SUM(AG44:AG49)</f>
-        <v>2133</v>
-      </c>
-      <c r="ED44">
-        <f t="shared" ref="ED44" si="628">SUM(AH44:AH49)</f>
-        <v>2398</v>
-      </c>
-      <c r="EE44">
-        <f t="shared" ref="EE44" si="629">SUM(AI44:AI49)</f>
-        <v>2289</v>
-      </c>
-      <c r="EF44">
-        <f t="shared" ref="EF44" si="630">SUM(AJ44:AJ49)</f>
-        <v>2214</v>
-      </c>
-      <c r="EG44">
-        <f t="shared" ref="EG44" si="631">SUM(AK44:AK49)</f>
-        <v>2451</v>
-      </c>
-      <c r="EH44">
-        <f t="shared" ref="EH44" si="632">SUM(AL44:AL49)</f>
-        <v>2284</v>
-      </c>
-      <c r="EI44">
-        <f t="shared" ref="EI44" si="633">SUM(AM44:AM49)</f>
-        <v>2185</v>
-      </c>
-      <c r="EJ44">
-        <f t="shared" ref="EJ44" si="634">SUM(AN44:AN49)</f>
-        <v>2232</v>
-      </c>
-      <c r="EK44">
-        <f t="shared" ref="EK44" si="635">SUM(AO44:AO49)</f>
-        <v>1938</v>
-      </c>
-      <c r="EL44">
-        <f t="shared" ref="EL44" si="636">SUM(AP44:AP49)</f>
-        <v>2289</v>
-      </c>
-      <c r="EM44">
-        <f t="shared" ref="EM44" si="637">SUM(AQ44:AQ49)</f>
-        <v>2401</v>
-      </c>
-      <c r="EN44">
-        <f t="shared" ref="EN44" si="638">SUM(AR44:AR49)</f>
-        <v>2375</v>
-      </c>
-      <c r="EO44">
-        <f t="shared" ref="EO44" si="639">SUM(AS44:AS49)</f>
-        <v>2477</v>
-      </c>
-      <c r="EP44">
-        <f t="shared" ref="EP44" si="640">SUM(AT44:AT49)</f>
-        <v>2516</v>
-      </c>
-      <c r="EQ44">
-        <f t="shared" ref="EQ44" si="641">SUM(AU44:AU49)</f>
-        <v>2459</v>
-      </c>
-      <c r="ER44">
-        <f t="shared" ref="ER44" si="642">SUM(AV44:AV49)</f>
-        <v>2568</v>
-      </c>
-      <c r="ES44">
-        <f t="shared" ref="ES44" si="643">SUM(AW44:AW49)</f>
-        <v>2355</v>
-      </c>
-      <c r="ET44">
-        <f t="shared" ref="ET44" si="644">SUM(AX44:AX49)</f>
-        <v>2165</v>
-      </c>
-      <c r="EU44">
-        <f t="shared" ref="EU44" si="645">SUM(AY44:AY49)</f>
-        <v>2111</v>
-      </c>
-      <c r="EV44">
-        <f t="shared" ref="EV44" si="646">SUM(AZ44:AZ49)</f>
-        <v>2320</v>
-      </c>
-      <c r="EW44">
-        <f t="shared" ref="EW44" si="647">SUM(BA44:BA49)</f>
-        <v>2765</v>
-      </c>
-      <c r="EX44">
-        <f t="shared" ref="EX44" si="648">SUM(BB44:BB49)</f>
-        <v>2366</v>
-      </c>
-      <c r="EY44">
-        <f t="shared" ref="EY44" si="649">SUM(BC44:BC49)</f>
-        <v>2197</v>
-      </c>
-      <c r="EZ44">
-        <f t="shared" ref="EZ44" si="650">SUM(BD44:BD49)</f>
-        <v>2196</v>
-      </c>
-      <c r="FA44">
-        <f t="shared" ref="FA44" si="651">SUM(BE44:BE49)</f>
-        <v>2334</v>
-      </c>
-      <c r="FB44">
-        <f t="shared" ref="FB44" si="652">SUM(BF44:BF49)</f>
-        <v>2486</v>
-      </c>
-      <c r="FC44">
-        <f t="shared" ref="FC44" si="653">SUM(BG44:BG49)</f>
-        <v>2391</v>
-      </c>
-      <c r="FD44">
-        <f t="shared" ref="FD44" si="654">SUM(BH44:BH49)</f>
-        <v>2135</v>
-      </c>
-      <c r="FE44">
-        <f t="shared" ref="FE44" si="655">SUM(BI44:BI49)</f>
-        <v>2148</v>
-      </c>
-      <c r="FF44">
-        <f t="shared" ref="FF44" si="656">SUM(BJ44:BJ49)</f>
-        <v>2399</v>
-      </c>
-      <c r="FG44">
-        <f t="shared" ref="FG44" si="657">SUM(BK44:BK49)</f>
-        <v>1992</v>
-      </c>
-      <c r="FH44">
-        <f t="shared" ref="FH44" si="658">SUM(BL44:BL49)</f>
-        <v>2414</v>
-      </c>
-      <c r="FI44">
-        <f t="shared" ref="FI44" si="659">SUM(BM44:BM49)</f>
-        <v>2254</v>
-      </c>
-      <c r="FJ44">
-        <f t="shared" ref="FJ44" si="660">SUM(BN44:BN49)</f>
-        <v>2259</v>
-      </c>
-      <c r="FK44">
-        <f t="shared" ref="FK44" si="661">SUM(BO44:BO49)</f>
-        <v>2118</v>
-      </c>
-      <c r="FL44">
-        <f t="shared" ref="FL44" si="662">SUM(BP44:BP49)</f>
-        <v>1841</v>
-      </c>
-      <c r="FM44">
-        <f t="shared" ref="FM44" si="663">SUM(BQ44:BQ49)</f>
-        <v>2300</v>
-      </c>
-      <c r="FN44">
-        <f t="shared" ref="FN44" si="664">SUM(BR44:BR49)</f>
-        <v>2153</v>
-      </c>
-      <c r="FO44">
-        <f t="shared" ref="FO44" si="665">SUM(BS44:BS49)</f>
-        <v>2433</v>
-      </c>
-      <c r="FP44">
-        <f t="shared" ref="FP44" si="666">SUM(BT44:BT49)</f>
-        <v>2006</v>
-      </c>
-      <c r="FQ44">
-        <f t="shared" ref="FQ44" si="667">SUM(BU44:BU49)</f>
-        <v>1889</v>
-      </c>
-      <c r="FR44">
-        <f t="shared" ref="FR44" si="668">SUM(BV44:BV49)</f>
-        <v>2531</v>
-      </c>
-      <c r="FS44">
-        <f t="shared" ref="FS44" si="669">SUM(BW44:BW49)</f>
-        <v>2386</v>
-      </c>
-      <c r="FT44">
-        <f t="shared" ref="FT44" si="670">SUM(BX44:BX49)</f>
-        <v>2521</v>
-      </c>
-      <c r="FU44">
-        <f t="shared" ref="FU44" si="671">SUM(BY44:BY49)</f>
-        <v>2315</v>
-      </c>
-      <c r="FV44">
-        <f t="shared" ref="FV44" si="672">SUM(BZ44:BZ49)</f>
-        <v>2399</v>
-      </c>
-      <c r="FW44">
-        <f t="shared" ref="FW44" si="673">SUM(CA44:CA49)</f>
-        <v>2194</v>
-      </c>
-      <c r="FX44">
-        <f t="shared" ref="FX44" si="674">SUM(CB44:CB49)</f>
-        <v>2186</v>
-      </c>
-      <c r="FY44">
-        <f t="shared" ref="FY44" si="675">SUM(CC44:CC49)</f>
-        <v>2418</v>
-      </c>
-      <c r="FZ44">
-        <f t="shared" ref="FZ44" si="676">SUM(CD44:CD49)</f>
-        <v>2350</v>
-      </c>
-      <c r="GA44">
-        <f t="shared" ref="GA44" si="677">SUM(CE44:CE49)</f>
-        <v>2254</v>
-      </c>
-      <c r="GB44">
-        <f t="shared" ref="GB44" si="678">SUM(CF44:CF49)</f>
-        <v>2333</v>
-      </c>
-      <c r="GC44">
-        <f t="shared" ref="GC44" si="679">SUM(CG44:CG49)</f>
-        <v>2510</v>
-      </c>
-      <c r="GD44">
-        <f t="shared" ref="GD44" si="680">SUM(CH44:CH49)</f>
-        <v>2282</v>
-      </c>
-      <c r="GE44">
-        <f t="shared" ref="GE44" si="681">SUM(CI44:CI49)</f>
-        <v>2351</v>
-      </c>
-      <c r="GF44">
-        <f t="shared" ref="GF44" si="682">SUM(CJ44:CJ49)</f>
-        <v>2426</v>
-      </c>
-      <c r="GG44">
-        <f t="shared" ref="GG44" si="683">SUM(CK44:CK49)</f>
-        <v>2381</v>
-      </c>
-      <c r="GH44">
-        <f t="shared" ref="GH44" si="684">SUM(CL44:CL49)</f>
-        <v>2083</v>
-      </c>
-      <c r="GI44">
-        <f t="shared" ref="GI44" si="685">SUM(CM44:CM49)</f>
-        <v>2136</v>
-      </c>
-      <c r="GJ44">
-        <f t="shared" ref="GJ44" si="686">SUM(CN44:CN49)</f>
-        <v>2302</v>
-      </c>
-      <c r="GK44">
-        <f t="shared" ref="GK44" si="687">SUM(CO44:CO49)</f>
-        <v>2580</v>
-      </c>
-      <c r="GL44">
-        <f t="shared" ref="GL44" si="688">SUM(CP44:CP49)</f>
-        <v>2173</v>
-      </c>
-      <c r="GM44">
-        <f t="shared" ref="GM44" si="689">SUM(CQ44:CQ49)</f>
-        <v>1926</v>
-      </c>
-      <c r="GN44">
-        <f t="shared" ref="GN44" si="690">SUM(CR44:CR49)</f>
-        <v>2422</v>
-      </c>
-      <c r="GO44">
-        <f t="shared" ref="GO44" si="691">SUM(CS44:CS49)</f>
-        <v>2109</v>
-      </c>
-      <c r="GP44">
-        <f t="shared" ref="GP44" si="692">SUM(CT44:CT49)</f>
-        <v>2410</v>
-      </c>
-      <c r="GQ44">
-        <f t="shared" ref="GQ44" si="693">SUM(CU44:CU49)</f>
-        <v>2450</v>
-      </c>
-      <c r="GR44">
-        <f t="shared" ref="GR44" si="694">SUM(CV44:CV49)</f>
-        <v>2275</v>
-      </c>
-      <c r="GS44">
-        <f t="shared" ref="GS44" si="695">SUM(CW44:CW49)</f>
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="45" spans="1:201">
+    </row>
+    <row r="45" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -18518,28 +15017,8 @@
       <c r="CW45">
         <v>338</v>
       </c>
-      <c r="CZ45" s="6"/>
-      <c r="DA45" s="6"/>
-      <c r="DB45" s="6"/>
-      <c r="DC45" s="6"/>
-      <c r="DD45" s="6"/>
-      <c r="DE45" s="6"/>
-      <c r="DF45" s="6"/>
-      <c r="DG45" s="6"/>
-      <c r="DH45" s="6"/>
-      <c r="DI45" s="6"/>
-      <c r="DJ45" s="6"/>
-      <c r="DK45" s="6"/>
-      <c r="DL45" s="6"/>
-      <c r="DM45" s="6"/>
-      <c r="DN45" s="6"/>
-      <c r="DO45" s="6"/>
-      <c r="DP45" s="6"/>
-      <c r="DQ45" s="6"/>
-      <c r="DR45" s="6"/>
-      <c r="DS45" s="6"/>
-    </row>
-    <row r="46" spans="1:201">
+    </row>
+    <row r="46" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -18843,28 +15322,8 @@
       <c r="CW46">
         <v>430</v>
       </c>
-      <c r="CZ46" s="6"/>
-      <c r="DA46" s="6"/>
-      <c r="DB46" s="6"/>
-      <c r="DC46" s="6"/>
-      <c r="DD46" s="6"/>
-      <c r="DE46" s="6"/>
-      <c r="DF46" s="6"/>
-      <c r="DG46" s="6"/>
-      <c r="DH46" s="6"/>
-      <c r="DI46" s="6"/>
-      <c r="DJ46" s="6"/>
-      <c r="DK46" s="6"/>
-      <c r="DL46" s="6"/>
-      <c r="DM46" s="6"/>
-      <c r="DN46" s="6"/>
-      <c r="DO46" s="6"/>
-      <c r="DP46" s="6"/>
-      <c r="DQ46" s="6"/>
-      <c r="DR46" s="6"/>
-      <c r="DS46" s="6"/>
-    </row>
-    <row r="47" spans="1:201">
+    </row>
+    <row r="47" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -19168,28 +15627,8 @@
       <c r="CW47">
         <v>523</v>
       </c>
-      <c r="CZ47" s="6"/>
-      <c r="DA47" s="6"/>
-      <c r="DB47" s="6"/>
-      <c r="DC47" s="6"/>
-      <c r="DD47" s="6"/>
-      <c r="DE47" s="6"/>
-      <c r="DF47" s="6"/>
-      <c r="DG47" s="6"/>
-      <c r="DH47" s="6"/>
-      <c r="DI47" s="6"/>
-      <c r="DJ47" s="6"/>
-      <c r="DK47" s="6"/>
-      <c r="DL47" s="6"/>
-      <c r="DM47" s="6"/>
-      <c r="DN47" s="6"/>
-      <c r="DO47" s="6"/>
-      <c r="DP47" s="6"/>
-      <c r="DQ47" s="6"/>
-      <c r="DR47" s="6"/>
-      <c r="DS47" s="6"/>
-    </row>
-    <row r="48" spans="1:201">
+    </row>
+    <row r="48" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -19493,28 +15932,8 @@
       <c r="CW48">
         <v>252</v>
       </c>
-      <c r="CZ48" s="6"/>
-      <c r="DA48" s="6"/>
-      <c r="DB48" s="6"/>
-      <c r="DC48" s="6"/>
-      <c r="DD48" s="6"/>
-      <c r="DE48" s="6"/>
-      <c r="DF48" s="6"/>
-      <c r="DG48" s="6"/>
-      <c r="DH48" s="6"/>
-      <c r="DI48" s="6"/>
-      <c r="DJ48" s="6"/>
-      <c r="DK48" s="6"/>
-      <c r="DL48" s="6"/>
-      <c r="DM48" s="6"/>
-      <c r="DN48" s="6"/>
-      <c r="DO48" s="6"/>
-      <c r="DP48" s="6"/>
-      <c r="DQ48" s="6"/>
-      <c r="DR48" s="6"/>
-      <c r="DS48" s="6"/>
-    </row>
-    <row r="49" spans="1:123">
+    </row>
+    <row r="49" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -19818,26 +16237,6 @@
       <c r="CW49">
         <v>454</v>
       </c>
-      <c r="CZ49" s="6"/>
-      <c r="DA49" s="6"/>
-      <c r="DB49" s="6"/>
-      <c r="DC49" s="6"/>
-      <c r="DD49" s="6"/>
-      <c r="DE49" s="6"/>
-      <c r="DF49" s="6"/>
-      <c r="DG49" s="6"/>
-      <c r="DH49" s="6"/>
-      <c r="DI49" s="6"/>
-      <c r="DJ49" s="6"/>
-      <c r="DK49" s="6"/>
-      <c r="DL49" s="6"/>
-      <c r="DM49" s="6"/>
-      <c r="DN49" s="6"/>
-      <c r="DO49" s="6"/>
-      <c r="DP49" s="6"/>
-      <c r="DQ49" s="6"/>
-      <c r="DR49" s="6"/>
-      <c r="DS49" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19853,13 +16252,13 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -19970,7 +16369,7 @@
       <c r="CV1" s="4"/>
       <c r="CW1" s="4"/>
     </row>
-    <row r="2" spans="1:101">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -19996,7 +16395,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="3" spans="1:101">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -20011,7 +16410,7 @@
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:101">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -20026,7 +16425,7 @@
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:101">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -20041,7 +16440,7 @@
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:101">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -20056,7 +16455,7 @@
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:101">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -20071,7 +16470,7 @@
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:101">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -20097,7 +16496,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="9" spans="1:101">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -20112,7 +16511,7 @@
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:101">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -20127,7 +16526,7 @@
       </c>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:101">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -20142,7 +16541,7 @@
       </c>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:101">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -20156,7 +16555,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="13" spans="1:101">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -20170,7 +16569,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:101">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -20196,7 +16595,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="15" spans="1:101">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -20210,7 +16609,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:101">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -20224,7 +16623,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -20238,7 +16637,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -20252,7 +16651,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -20266,7 +16665,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -20292,7 +16691,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -20306,7 +16705,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -20320,7 +16719,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -20334,7 +16733,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -20348,7 +16747,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -20362,7 +16761,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -20388,7 +16787,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -20402,7 +16801,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -20416,7 +16815,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -20430,7 +16829,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -20444,7 +16843,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -20458,7 +16857,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -20484,7 +16883,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -20498,7 +16897,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -20512,7 +16911,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -20526,7 +16925,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -20540,7 +16939,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -20554,7 +16953,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -20580,7 +16979,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -20594,7 +16993,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -20608,7 +17007,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -20622,7 +17021,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -20636,7 +17035,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -20650,7 +17049,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -20676,7 +17075,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -20690,7 +17089,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -20704,7 +17103,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -20718,7 +17117,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -20732,7 +17131,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -20746,7 +17145,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F50"/>
     </row>
   </sheetData>
@@ -20762,13 +17161,13 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -20785,7 +17184,7 @@
         <v>21.404166666666701</v>
       </c>
     </row>
-    <row r="2" spans="1:101">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -20802,7 +17201,7 @@
         <v>3.8017889592638001</v>
       </c>
     </row>
-    <row r="3" spans="1:101">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -20913,7 +17312,7 @@
       <c r="CV3" s="4"/>
       <c r="CW3" s="4"/>
     </row>
-    <row r="4" spans="1:101">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -20930,7 +17329,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="5" spans="1:101">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -20945,7 +17344,7 @@
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:101">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -20960,7 +17359,7 @@
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:101">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -20975,7 +17374,7 @@
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:101">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -20990,7 +17389,7 @@
       </c>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:101">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -21005,7 +17404,7 @@
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:101">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -21020,7 +17419,7 @@
       </c>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:101">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -21035,7 +17434,7 @@
       </c>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:101">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -21050,7 +17449,7 @@
       </c>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:101">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -21065,7 +17464,7 @@
       </c>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:101">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -21079,7 +17478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:101">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -21093,7 +17492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:101">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -21107,7 +17506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -21121,7 +17520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -21135,7 +17534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -21149,7 +17548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -21163,7 +17562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -21177,7 +17576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -21191,7 +17590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -21205,7 +17604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -21219,7 +17618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -21233,7 +17632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -21247,7 +17646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -21261,7 +17660,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -21275,7 +17674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -21289,7 +17688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -21303,7 +17702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -21317,7 +17716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -21331,7 +17730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -21345,7 +17744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -21359,7 +17758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -21373,7 +17772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -21387,7 +17786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -21401,7 +17800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -21415,7 +17814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -21429,7 +17828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -21443,7 +17842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -21457,7 +17856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -21471,7 +17870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -21485,7 +17884,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -21499,7 +17898,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -21513,7 +17912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -21527,7 +17926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -21541,7 +17940,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -21555,7 +17954,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -21569,7 +17968,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -21583,7 +17982,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -21607,20 +18006,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:CW49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -21731,7 +18130,7 @@
       <c r="CV1" s="4"/>
       <c r="CW1" s="4"/>
     </row>
-    <row r="2" spans="1:101">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -21748,7 +18147,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="3" spans="1:101">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -21763,7 +18162,7 @@
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:101">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -21778,7 +18177,7 @@
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:101">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -21793,7 +18192,7 @@
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:101">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -21808,7 +18207,7 @@
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:101">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -21823,7 +18222,7 @@
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:101">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -21838,7 +18237,7 @@
       </c>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:101">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -21853,7 +18252,7 @@
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:101">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -21868,7 +18267,7 @@
       </c>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:101">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -21883,7 +18282,7 @@
       </c>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:101">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -21897,7 +18296,7 @@
         <v>5.3333333333333304</v>
       </c>
     </row>
-    <row r="13" spans="1:101">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -21911,147 +18310,147 @@
         <v>1.3333333333333299</v>
       </c>
     </row>
-    <row r="14" spans="1:101">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:101">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:101">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="C42" s="5"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="C49" s="5"/>
     </row>
